--- a/thickness/KeeBar_Thickness.xlsx
+++ b/thickness/KeeBar_Thickness.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ymkn\Documents\KiCad\7.0\projects\KeeBar\thickness\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ymkn\Documents\KiCad\7.0\projects\KeeBar_dev-1.1\thickness\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3041C81-C709-47E9-97F1-B23448D3BB6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414815AE-A81B-471C-B722-742B4F02E901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="21600" windowHeight="11333" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="1.0" sheetId="1" r:id="rId1"/>
+    <sheet name="1.1" sheetId="2" r:id="rId2"/>
+    <sheet name="1.1_thickness" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Pin Header</t>
     <phoneticPr fontId="1"/>
@@ -38,13 +40,70 @@
     <t>USB Connector</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>space</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RP2040-Zero PCB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Keyboard PCB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Keyboard TopPlate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>USB Type-C Receptacle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Spacer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PCB Foam</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Case Foam</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(Case Foam 2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Keyboard BottomPlate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Case Bottom Thickness</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Case Height</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Case Height from top of Bottom</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>margin</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="182" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -69,7 +128,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -88,6 +147,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -101,12 +178,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="182" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="182" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="182" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="182" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2685,6 +2769,1984 @@
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>144</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="正方形/長方形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3CE7226-F828-C1EF-0654-06546B041A33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2667000" y="28194000"/>
+          <a:ext cx="24765000" cy="3810000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4800">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Acrylic Plate (for</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4800" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Stack Ver.)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4800">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4800">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2.0mm</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4800">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>169</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>188</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="正方形/長方形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7027ED6A-6231-5602-B76D-C61324A665D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32194500" y="18669000"/>
+          <a:ext cx="3619500" cy="13335000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>M2 Spacer</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7.0mm</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>144</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EBDC1BC-4B06-45CD-9EC9-FC6BD76F72E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4845845" y="25407938"/>
+          <a:ext cx="24765000" cy="5715000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4800">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Foam</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4800">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3.0mm</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4800">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>144</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8236A230-EC75-476F-8027-F62509A9C6FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4852988" y="21583650"/>
+          <a:ext cx="24765000" cy="3810000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4800">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Foam</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4800">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2.0mm</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4800">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>195</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{229B998B-3F0B-428B-99F1-B1C8FFFDF94E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4852988" y="18535650"/>
+          <a:ext cx="34480500" cy="3048000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4800"/>
+            <a:t>Keyboard PCB</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4800"/>
+            <a:t>1.6mm</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E88DBEE0-C272-4C14-B38D-51CEFE26676A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10567988" y="21583650"/>
+          <a:ext cx="5715000" cy="3429000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4800">
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Switch</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4800" baseline="0">
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Socket</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4800">
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4800">
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1.8mm</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4800">
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>99</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F053695-B9EA-4828-8889-D5FCE56296B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15513845" y="21597938"/>
+          <a:ext cx="5524500" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4800"/>
+            <a:t>RP2040-Zero</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4800" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4800"/>
+            <a:t>PCB</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4800"/>
+            <a:t>1.0mm</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>94</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4609012-827B-4E1E-ADC7-D5DAE33FDB23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16466345" y="23502938"/>
+          <a:ext cx="3619500" cy="6286500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4800">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>USB-C</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4800" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Connector</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4800">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4800">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3.26mm</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4800">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>138</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C2DDA68-98DA-40CC-9D18-F0B14402B8EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2667000" y="32004000"/>
+          <a:ext cx="23622000" cy="3048000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4800"/>
+            <a:t>Bottom</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4800" baseline="0"/>
+            <a:t> Plate (for Plate Ver.)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4800"/>
+            <a:t>1.6mm</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>119</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>138</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A01CA20-9196-4512-8887-833626CEC8D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24841200" y="21640800"/>
+          <a:ext cx="3619500" cy="13335000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>M2 Spacer</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7.0mm</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>138</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>194</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01EFEE6F-A89A-474C-A590-3327DA0B4BAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26289000" y="32004000"/>
+          <a:ext cx="10668000" cy="4953000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4800">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Case</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4800">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(Bottom)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4800">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2.5mm</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4800">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>144</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>165</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DDB038A-7B3A-492B-9637-DD280A76C8B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27432000" y="2857500"/>
+          <a:ext cx="4000500" cy="29146500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4800">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Case</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4800">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(Side)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4800">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>15.3mm</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4800">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>35718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98B32381-D260-4149-BBB2-78D900A3B2A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8382000" y="4107656"/>
+          <a:ext cx="5715000" cy="14442282"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>MX Switch</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>144</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A09FF27D-98D9-448D-8B59-EACA9D397DA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4655345" y="5786438"/>
+          <a:ext cx="24955500" cy="3257550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4800"/>
+            <a:t>Keyboard Plate</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4800"/>
+            <a:t>1.6mm</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>105</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>112</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="矢印: 上下 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42FC5C6F-69FC-4DE7-A40E-F30E7E5EFFDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22188488" y="9010650"/>
+          <a:ext cx="1333500" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="upDownArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>5.0mm</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>122</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>134</xdr:col>
+      <xdr:colOff>196100</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="正方形/長方形 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFAF0901-FD93-4208-A663-8F7DE6C63F74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25426988" y="18457209"/>
+          <a:ext cx="2477337" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4800">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Screw</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4800">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>male (L)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4800">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>5.0mm</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4800">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>171</xdr:col>
+      <xdr:colOff>170613</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>184</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="正方形/長方形 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{980500A1-BE85-4423-BF85-626E1AE6C1FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32746113" y="15621000"/>
+          <a:ext cx="2477337" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4800">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Screw</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4800">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>male (L)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4800">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>5.0mm</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4800">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>122</xdr:col>
+      <xdr:colOff>4769</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>135</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="正方形/長方形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A175EE2-B284-41D0-9036-471356AA66C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23245769" y="25527000"/>
+          <a:ext cx="2471731" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4800">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Screw</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4800">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>male (L)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4800">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>5.0mm</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4800">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>172</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>185</xdr:col>
+      <xdr:colOff>837</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="正方形/長方形 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB1A5D8A-14EC-4078-A6FB-08E9013A8CAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32766000" y="27546300"/>
+          <a:ext cx="2477337" cy="9410700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4800">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Screw</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4800">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>male (L)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4800">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>5.0mm</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4800">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>114</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="四角形: 角を丸くする 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79B26294-D7A5-9968-8FC8-5751DBB77743}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10725150" y="15754350"/>
+          <a:ext cx="10991850" cy="15621000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="53000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="7200"/>
+            <a:t>USB magnetic</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="7200" baseline="0"/>
+            <a:t> adapter</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="7200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="7200"/>
+            <a:t>w13.1 x h8.2mm</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2958,7 +5020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B6:DU140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+    <sheetView topLeftCell="A49" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
       <selection activeCell="O141" sqref="O141"/>
     </sheetView>
   </sheetViews>
@@ -3144,4 +5206,4861 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{699A584C-AF9B-49E4-AA26-B5671C9A3A00}">
+  <dimension ref="AU26:HP211"/>
+  <sheetViews>
+    <sheetView zoomScale="17" zoomScaleNormal="17" workbookViewId="0">
+      <selection activeCell="IG187" sqref="IG187"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetData>
+    <row r="26" spans="119:132" ht="15" customHeight="1">
+      <c r="DO26" s="5"/>
+      <c r="DP26" s="5"/>
+      <c r="DQ26" s="5"/>
+      <c r="DR26" s="5"/>
+      <c r="DS26" s="5"/>
+      <c r="DT26" s="5"/>
+      <c r="DU26" s="5"/>
+      <c r="DV26" s="5"/>
+      <c r="DW26" s="5"/>
+      <c r="DX26" s="5"/>
+      <c r="DY26" s="5"/>
+      <c r="DZ26" s="5"/>
+      <c r="EA26" s="5"/>
+      <c r="EB26" s="5"/>
+    </row>
+    <row r="27" spans="119:132" ht="15" customHeight="1">
+      <c r="DO27" s="5"/>
+      <c r="DP27" s="5"/>
+      <c r="DQ27" s="5"/>
+      <c r="DR27" s="5"/>
+      <c r="DS27" s="5"/>
+      <c r="DT27" s="5"/>
+      <c r="DU27" s="5"/>
+      <c r="DV27" s="5"/>
+      <c r="DW27" s="5"/>
+      <c r="DX27" s="5"/>
+      <c r="DY27" s="5"/>
+      <c r="DZ27" s="5"/>
+      <c r="EA27" s="5"/>
+      <c r="EB27" s="5"/>
+    </row>
+    <row r="28" spans="119:132" ht="15" customHeight="1">
+      <c r="DO28" s="5"/>
+      <c r="DP28" s="5"/>
+      <c r="DQ28" s="5"/>
+      <c r="DR28" s="5"/>
+      <c r="DS28" s="5"/>
+      <c r="DT28" s="5"/>
+      <c r="DU28" s="5"/>
+      <c r="DV28" s="5"/>
+      <c r="DW28" s="5"/>
+      <c r="DX28" s="5"/>
+      <c r="DY28" s="5"/>
+      <c r="DZ28" s="5"/>
+      <c r="EA28" s="5"/>
+      <c r="EB28" s="5"/>
+    </row>
+    <row r="29" spans="119:132" ht="15" customHeight="1">
+      <c r="DO29" s="5"/>
+      <c r="DP29" s="5"/>
+      <c r="DQ29" s="5"/>
+      <c r="DR29" s="5"/>
+      <c r="DS29" s="5"/>
+      <c r="DT29" s="5"/>
+      <c r="DU29" s="5"/>
+      <c r="DV29" s="5"/>
+      <c r="DW29" s="5"/>
+      <c r="DX29" s="5"/>
+      <c r="DY29" s="5"/>
+      <c r="DZ29" s="5"/>
+      <c r="EA29" s="5"/>
+      <c r="EB29" s="5"/>
+    </row>
+    <row r="30" spans="119:132" ht="15" customHeight="1">
+      <c r="DO30" s="5"/>
+      <c r="DP30" s="5"/>
+      <c r="DQ30" s="5"/>
+      <c r="DR30" s="5"/>
+      <c r="DS30" s="5"/>
+      <c r="DT30" s="5"/>
+      <c r="DU30" s="5"/>
+      <c r="DV30" s="5"/>
+      <c r="DW30" s="5"/>
+      <c r="DX30" s="5"/>
+      <c r="DY30" s="5"/>
+      <c r="DZ30" s="5"/>
+      <c r="EA30" s="5"/>
+      <c r="EB30" s="5"/>
+    </row>
+    <row r="31" spans="119:132" ht="15" customHeight="1">
+      <c r="DO31" s="5"/>
+      <c r="DP31" s="5"/>
+      <c r="DQ31" s="5"/>
+      <c r="DR31" s="5"/>
+      <c r="DS31" s="5"/>
+      <c r="DT31" s="5"/>
+      <c r="DU31" s="5"/>
+      <c r="DV31" s="5"/>
+      <c r="DW31" s="5"/>
+      <c r="DX31" s="5"/>
+      <c r="DY31" s="5"/>
+      <c r="DZ31" s="5"/>
+      <c r="EA31" s="5"/>
+      <c r="EB31" s="5"/>
+    </row>
+    <row r="32" spans="119:132" ht="15" customHeight="1">
+      <c r="DO32" s="5"/>
+      <c r="DP32" s="5"/>
+      <c r="DQ32" s="5"/>
+      <c r="DR32" s="5"/>
+      <c r="DS32" s="5"/>
+      <c r="DT32" s="5"/>
+      <c r="DU32" s="5"/>
+      <c r="DV32" s="5"/>
+      <c r="DW32" s="5"/>
+      <c r="DX32" s="5"/>
+      <c r="DY32" s="5"/>
+      <c r="DZ32" s="5"/>
+      <c r="EA32" s="5"/>
+      <c r="EB32" s="5"/>
+    </row>
+    <row r="33" spans="119:132" ht="15" customHeight="1">
+      <c r="DO33" s="5"/>
+      <c r="DP33" s="5"/>
+      <c r="DQ33" s="5"/>
+      <c r="DR33" s="5"/>
+      <c r="DS33" s="5"/>
+      <c r="DT33" s="5"/>
+      <c r="DU33" s="5"/>
+      <c r="DV33" s="5"/>
+      <c r="DW33" s="5"/>
+      <c r="DX33" s="5"/>
+      <c r="DY33" s="5"/>
+      <c r="DZ33" s="5"/>
+      <c r="EA33" s="5"/>
+      <c r="EB33" s="5"/>
+    </row>
+    <row r="34" spans="119:132" ht="15" customHeight="1">
+      <c r="DO34" s="5"/>
+      <c r="DP34" s="5"/>
+      <c r="DQ34" s="5"/>
+      <c r="DR34" s="5"/>
+      <c r="DS34" s="5"/>
+      <c r="DT34" s="5"/>
+      <c r="DU34" s="5"/>
+      <c r="DV34" s="5"/>
+      <c r="DW34" s="5"/>
+      <c r="DX34" s="5"/>
+      <c r="DY34" s="5"/>
+      <c r="DZ34" s="5"/>
+      <c r="EA34" s="5"/>
+      <c r="EB34" s="5"/>
+    </row>
+    <row r="35" spans="119:132" ht="15" customHeight="1">
+      <c r="DO35" s="5"/>
+      <c r="DP35" s="5"/>
+      <c r="DQ35" s="5"/>
+      <c r="DR35" s="5"/>
+      <c r="DS35" s="5"/>
+      <c r="DT35" s="5"/>
+      <c r="DU35" s="5"/>
+      <c r="DV35" s="5"/>
+      <c r="DW35" s="5"/>
+      <c r="DX35" s="5"/>
+      <c r="DY35" s="5"/>
+      <c r="DZ35" s="5"/>
+      <c r="EA35" s="5"/>
+      <c r="EB35" s="5"/>
+    </row>
+    <row r="36" spans="119:132" ht="15" customHeight="1">
+      <c r="DO36" s="5"/>
+      <c r="DP36" s="5"/>
+      <c r="DQ36" s="5"/>
+      <c r="DR36" s="5"/>
+      <c r="DS36" s="5"/>
+      <c r="DT36" s="5"/>
+      <c r="DU36" s="5"/>
+      <c r="DV36" s="5"/>
+      <c r="DW36" s="5"/>
+      <c r="DX36" s="5"/>
+      <c r="DY36" s="5"/>
+      <c r="DZ36" s="5"/>
+      <c r="EA36" s="5"/>
+      <c r="EB36" s="5"/>
+    </row>
+    <row r="37" spans="119:132" ht="15" customHeight="1">
+      <c r="DO37" s="5"/>
+      <c r="DP37" s="5"/>
+      <c r="DQ37" s="5"/>
+      <c r="DR37" s="5"/>
+      <c r="DS37" s="5"/>
+      <c r="DT37" s="5"/>
+      <c r="DU37" s="5"/>
+      <c r="DV37" s="5"/>
+      <c r="DW37" s="5"/>
+      <c r="DX37" s="5"/>
+      <c r="DY37" s="5"/>
+      <c r="DZ37" s="5"/>
+      <c r="EA37" s="5"/>
+      <c r="EB37" s="5"/>
+    </row>
+    <row r="38" spans="119:132" ht="15" customHeight="1">
+      <c r="DO38" s="5"/>
+      <c r="DP38" s="5"/>
+      <c r="DQ38" s="5"/>
+      <c r="DR38" s="5"/>
+      <c r="DS38" s="5"/>
+      <c r="DT38" s="5"/>
+      <c r="DU38" s="5"/>
+      <c r="DV38" s="5"/>
+      <c r="DW38" s="5"/>
+      <c r="DX38" s="5"/>
+      <c r="DY38" s="5"/>
+      <c r="DZ38" s="5"/>
+      <c r="EA38" s="5"/>
+      <c r="EB38" s="5"/>
+    </row>
+    <row r="39" spans="119:132" ht="15" customHeight="1">
+      <c r="DO39" s="5"/>
+      <c r="DP39" s="5"/>
+      <c r="DQ39" s="5"/>
+      <c r="DR39" s="5"/>
+      <c r="DS39" s="5"/>
+      <c r="DT39" s="5"/>
+      <c r="DU39" s="5"/>
+      <c r="DV39" s="5"/>
+      <c r="DW39" s="5"/>
+      <c r="DX39" s="5"/>
+      <c r="DY39" s="5"/>
+      <c r="DZ39" s="5"/>
+      <c r="EA39" s="5"/>
+      <c r="EB39" s="5"/>
+    </row>
+    <row r="40" spans="119:132" ht="15" customHeight="1">
+      <c r="DO40" s="5"/>
+      <c r="DP40" s="5"/>
+      <c r="DQ40" s="5"/>
+      <c r="DR40" s="5"/>
+      <c r="DS40" s="5"/>
+      <c r="DT40" s="5"/>
+      <c r="DU40" s="5"/>
+      <c r="DV40" s="5"/>
+      <c r="DW40" s="5"/>
+      <c r="DX40" s="5"/>
+      <c r="DY40" s="5"/>
+      <c r="DZ40" s="5"/>
+      <c r="EA40" s="5"/>
+      <c r="EB40" s="5"/>
+    </row>
+    <row r="41" spans="119:132" ht="15" customHeight="1">
+      <c r="DO41" s="5"/>
+      <c r="DP41" s="5"/>
+      <c r="DQ41" s="5"/>
+      <c r="DR41" s="5"/>
+      <c r="DS41" s="5"/>
+      <c r="DT41" s="5"/>
+      <c r="DU41" s="5"/>
+      <c r="DV41" s="5"/>
+      <c r="DW41" s="5"/>
+      <c r="DX41" s="5"/>
+      <c r="DY41" s="5"/>
+      <c r="DZ41" s="5"/>
+      <c r="EA41" s="5"/>
+      <c r="EB41" s="5"/>
+    </row>
+    <row r="42" spans="119:132" ht="15" customHeight="1">
+      <c r="DO42" s="5"/>
+      <c r="DP42" s="5"/>
+      <c r="DQ42" s="5"/>
+      <c r="DR42" s="5"/>
+      <c r="DS42" s="5"/>
+      <c r="DT42" s="5"/>
+      <c r="DU42" s="5"/>
+      <c r="DV42" s="5"/>
+      <c r="DW42" s="5"/>
+      <c r="DX42" s="5"/>
+      <c r="DY42" s="5"/>
+      <c r="DZ42" s="5"/>
+      <c r="EA42" s="5"/>
+      <c r="EB42" s="5"/>
+    </row>
+    <row r="43" spans="119:132" ht="15" customHeight="1">
+      <c r="DO43" s="5"/>
+      <c r="DP43" s="5"/>
+      <c r="DQ43" s="5"/>
+      <c r="DR43" s="5"/>
+      <c r="DS43" s="5"/>
+      <c r="DT43" s="5"/>
+      <c r="DU43" s="5"/>
+      <c r="DV43" s="5"/>
+      <c r="DW43" s="5"/>
+      <c r="DX43" s="5"/>
+      <c r="DY43" s="5"/>
+      <c r="DZ43" s="5"/>
+      <c r="EA43" s="5"/>
+      <c r="EB43" s="5"/>
+    </row>
+    <row r="44" spans="119:132" ht="15" customHeight="1">
+      <c r="DO44" s="5"/>
+      <c r="DP44" s="5"/>
+      <c r="DQ44" s="5"/>
+      <c r="DR44" s="5"/>
+      <c r="DS44" s="5"/>
+      <c r="DT44" s="5"/>
+      <c r="DU44" s="5"/>
+      <c r="DV44" s="5"/>
+      <c r="DW44" s="5"/>
+      <c r="DX44" s="5"/>
+      <c r="DY44" s="5"/>
+      <c r="DZ44" s="5"/>
+      <c r="EA44" s="5"/>
+      <c r="EB44" s="5"/>
+    </row>
+    <row r="45" spans="119:132" ht="15" customHeight="1">
+      <c r="DO45" s="5"/>
+      <c r="DP45" s="5"/>
+      <c r="DQ45" s="5"/>
+      <c r="DR45" s="5"/>
+      <c r="DS45" s="5"/>
+      <c r="DT45" s="5"/>
+      <c r="DU45" s="5"/>
+      <c r="DV45" s="5"/>
+      <c r="DW45" s="5"/>
+      <c r="DX45" s="5"/>
+      <c r="DY45" s="5"/>
+      <c r="DZ45" s="5"/>
+      <c r="EA45" s="5"/>
+      <c r="EB45" s="5"/>
+    </row>
+    <row r="46" spans="119:132" ht="15" customHeight="1">
+      <c r="DO46" s="5"/>
+      <c r="DP46" s="5"/>
+      <c r="DQ46" s="5"/>
+      <c r="DR46" s="5"/>
+      <c r="DS46" s="5"/>
+      <c r="DT46" s="5"/>
+      <c r="DU46" s="5"/>
+      <c r="DV46" s="5"/>
+      <c r="DW46" s="5"/>
+      <c r="DX46" s="5"/>
+      <c r="DY46" s="5"/>
+      <c r="DZ46" s="5"/>
+      <c r="EA46" s="5"/>
+      <c r="EB46" s="5"/>
+    </row>
+    <row r="47" spans="119:132" ht="15" customHeight="1">
+      <c r="DO47" s="5"/>
+      <c r="DP47" s="5"/>
+      <c r="DQ47" s="5"/>
+      <c r="DR47" s="5"/>
+      <c r="DS47" s="5"/>
+      <c r="DT47" s="5"/>
+      <c r="DU47" s="5"/>
+      <c r="DV47" s="5"/>
+      <c r="DW47" s="5"/>
+      <c r="DX47" s="5"/>
+      <c r="DY47" s="5"/>
+      <c r="DZ47" s="5"/>
+      <c r="EA47" s="5"/>
+      <c r="EB47" s="5"/>
+    </row>
+    <row r="48" spans="119:132" ht="15" customHeight="1">
+      <c r="DO48" s="5"/>
+      <c r="DP48" s="5"/>
+      <c r="DQ48" s="5"/>
+      <c r="DR48" s="5"/>
+      <c r="DS48" s="5"/>
+      <c r="DT48" s="5"/>
+      <c r="DU48" s="5"/>
+      <c r="DV48" s="5"/>
+      <c r="DW48" s="5"/>
+      <c r="DX48" s="5"/>
+      <c r="DY48" s="5"/>
+      <c r="DZ48" s="5"/>
+      <c r="EA48" s="5"/>
+      <c r="EB48" s="5"/>
+    </row>
+    <row r="49" spans="119:132" ht="15" customHeight="1">
+      <c r="DO49" s="5"/>
+      <c r="DP49" s="5"/>
+      <c r="DQ49" s="5"/>
+      <c r="DR49" s="5"/>
+      <c r="DS49" s="5"/>
+      <c r="DT49" s="5"/>
+      <c r="DU49" s="5"/>
+      <c r="DV49" s="5"/>
+      <c r="DW49" s="5"/>
+      <c r="DX49" s="5"/>
+      <c r="DY49" s="5"/>
+      <c r="DZ49" s="5"/>
+      <c r="EA49" s="5"/>
+      <c r="EB49" s="5"/>
+    </row>
+    <row r="50" spans="119:132" ht="15" customHeight="1">
+      <c r="DO50" s="5"/>
+      <c r="DP50" s="5"/>
+      <c r="DQ50" s="5"/>
+      <c r="DR50" s="5"/>
+      <c r="DS50" s="5"/>
+      <c r="DT50" s="5"/>
+      <c r="DU50" s="5"/>
+      <c r="DV50" s="5"/>
+      <c r="DW50" s="5"/>
+      <c r="DX50" s="5"/>
+      <c r="DY50" s="5"/>
+      <c r="DZ50" s="5"/>
+      <c r="EA50" s="5"/>
+      <c r="EB50" s="5"/>
+    </row>
+    <row r="51" spans="119:132" ht="15" customHeight="1">
+      <c r="DO51" s="5"/>
+      <c r="DP51" s="5"/>
+      <c r="DQ51" s="5"/>
+      <c r="DR51" s="5"/>
+      <c r="DS51" s="5"/>
+      <c r="DT51" s="5"/>
+      <c r="DU51" s="5"/>
+      <c r="DV51" s="5"/>
+      <c r="DW51" s="5"/>
+      <c r="DX51" s="5"/>
+      <c r="DY51" s="5"/>
+      <c r="DZ51" s="5"/>
+      <c r="EA51" s="5"/>
+      <c r="EB51" s="5"/>
+    </row>
+    <row r="52" spans="119:132" ht="15" customHeight="1">
+      <c r="DO52" s="5"/>
+      <c r="DP52" s="5"/>
+      <c r="DQ52" s="5"/>
+      <c r="DR52" s="5"/>
+      <c r="DS52" s="5"/>
+      <c r="DT52" s="5"/>
+      <c r="DU52" s="5"/>
+      <c r="DV52" s="5"/>
+      <c r="DW52" s="5"/>
+      <c r="DX52" s="5"/>
+      <c r="DY52" s="5"/>
+      <c r="DZ52" s="5"/>
+      <c r="EA52" s="5"/>
+      <c r="EB52" s="5"/>
+    </row>
+    <row r="53" spans="119:132" ht="15" customHeight="1">
+      <c r="DO53" s="5"/>
+      <c r="DP53" s="5"/>
+      <c r="DQ53" s="5"/>
+      <c r="DR53" s="5"/>
+      <c r="DS53" s="5"/>
+      <c r="DT53" s="5"/>
+      <c r="DU53" s="5"/>
+      <c r="DV53" s="5"/>
+      <c r="DW53" s="5"/>
+      <c r="DX53" s="5"/>
+      <c r="DY53" s="5"/>
+      <c r="DZ53" s="5"/>
+      <c r="EA53" s="5"/>
+      <c r="EB53" s="5"/>
+    </row>
+    <row r="54" spans="119:132" ht="15" customHeight="1">
+      <c r="DO54" s="5"/>
+      <c r="DP54" s="5"/>
+      <c r="DQ54" s="5"/>
+      <c r="DR54" s="5"/>
+      <c r="DS54" s="5"/>
+      <c r="DT54" s="5"/>
+      <c r="DU54" s="5"/>
+      <c r="DV54" s="5"/>
+      <c r="DW54" s="5"/>
+      <c r="DX54" s="5"/>
+      <c r="DY54" s="5"/>
+      <c r="DZ54" s="5"/>
+      <c r="EA54" s="5"/>
+      <c r="EB54" s="5"/>
+    </row>
+    <row r="55" spans="119:132" ht="15" customHeight="1">
+      <c r="DO55" s="5"/>
+      <c r="DP55" s="5"/>
+      <c r="DQ55" s="5"/>
+      <c r="DR55" s="5"/>
+      <c r="DS55" s="5"/>
+      <c r="DT55" s="5"/>
+      <c r="DU55" s="5"/>
+      <c r="DV55" s="5"/>
+      <c r="DW55" s="5"/>
+      <c r="DX55" s="5"/>
+      <c r="DY55" s="5"/>
+      <c r="DZ55" s="5"/>
+      <c r="EA55" s="5"/>
+      <c r="EB55" s="5"/>
+    </row>
+    <row r="56" spans="119:132" ht="15" customHeight="1">
+      <c r="DO56" s="5"/>
+      <c r="DP56" s="5"/>
+      <c r="DQ56" s="5"/>
+      <c r="DR56" s="5"/>
+      <c r="DS56" s="5"/>
+      <c r="DT56" s="5"/>
+      <c r="DU56" s="5"/>
+      <c r="DV56" s="5"/>
+      <c r="DW56" s="5"/>
+      <c r="DX56" s="5"/>
+      <c r="DY56" s="5"/>
+      <c r="DZ56" s="5"/>
+      <c r="EA56" s="5"/>
+      <c r="EB56" s="5"/>
+    </row>
+    <row r="57" spans="119:132" ht="15" customHeight="1">
+      <c r="DO57" s="5"/>
+      <c r="DP57" s="5"/>
+      <c r="DQ57" s="5"/>
+      <c r="DR57" s="5"/>
+      <c r="DS57" s="5"/>
+      <c r="DT57" s="5"/>
+      <c r="DU57" s="5"/>
+      <c r="DV57" s="5"/>
+      <c r="DW57" s="5"/>
+      <c r="DX57" s="5"/>
+      <c r="DY57" s="5"/>
+      <c r="DZ57" s="5"/>
+      <c r="EA57" s="5"/>
+      <c r="EB57" s="5"/>
+    </row>
+    <row r="58" spans="119:132" ht="15" customHeight="1">
+      <c r="DO58" s="5"/>
+      <c r="DP58" s="5"/>
+      <c r="DQ58" s="5"/>
+      <c r="DR58" s="5"/>
+      <c r="DS58" s="5"/>
+      <c r="DT58" s="5"/>
+      <c r="DU58" s="5"/>
+      <c r="DV58" s="5"/>
+      <c r="DW58" s="5"/>
+      <c r="DX58" s="5"/>
+      <c r="DY58" s="5"/>
+      <c r="DZ58" s="5"/>
+      <c r="EA58" s="5"/>
+      <c r="EB58" s="5"/>
+    </row>
+    <row r="59" spans="119:132" ht="15" customHeight="1">
+      <c r="DO59" s="5"/>
+      <c r="DP59" s="5"/>
+      <c r="DQ59" s="5"/>
+      <c r="DR59" s="5"/>
+      <c r="DS59" s="5"/>
+      <c r="DT59" s="5"/>
+      <c r="DU59" s="5"/>
+      <c r="DV59" s="5"/>
+      <c r="DW59" s="5"/>
+      <c r="DX59" s="5"/>
+      <c r="DY59" s="5"/>
+      <c r="DZ59" s="5"/>
+      <c r="EA59" s="5"/>
+      <c r="EB59" s="5"/>
+    </row>
+    <row r="60" spans="119:132" ht="15" customHeight="1">
+      <c r="DO60" s="5"/>
+      <c r="DP60" s="5"/>
+      <c r="DQ60" s="5"/>
+      <c r="DR60" s="5"/>
+      <c r="DS60" s="5"/>
+      <c r="DT60" s="5"/>
+      <c r="DU60" s="5"/>
+      <c r="DV60" s="5"/>
+      <c r="DW60" s="5"/>
+      <c r="DX60" s="5"/>
+      <c r="DY60" s="5"/>
+      <c r="DZ60" s="5"/>
+      <c r="EA60" s="5"/>
+      <c r="EB60" s="5"/>
+    </row>
+    <row r="95" spans="207:224" ht="15" customHeight="1">
+      <c r="GY95" s="5"/>
+      <c r="GZ95" s="5"/>
+      <c r="HA95" s="5"/>
+      <c r="HB95" s="5"/>
+      <c r="HC95" s="5"/>
+      <c r="HD95" s="5"/>
+      <c r="HE95" s="5"/>
+      <c r="HF95" s="5"/>
+      <c r="HG95" s="5"/>
+      <c r="HH95" s="5"/>
+      <c r="HI95" s="5"/>
+      <c r="HJ95" s="5"/>
+      <c r="HK95" s="5"/>
+      <c r="HL95" s="5"/>
+      <c r="HM95" s="5"/>
+      <c r="HN95" s="5"/>
+      <c r="HO95" s="5"/>
+      <c r="HP95" s="5"/>
+    </row>
+    <row r="96" spans="207:224" ht="15" customHeight="1">
+      <c r="GY96" s="5"/>
+      <c r="GZ96" s="5"/>
+      <c r="HA96" s="5"/>
+      <c r="HB96" s="5"/>
+      <c r="HC96" s="5"/>
+      <c r="HD96" s="5"/>
+      <c r="HE96" s="5"/>
+      <c r="HF96" s="5"/>
+      <c r="HG96" s="5"/>
+      <c r="HH96" s="5"/>
+      <c r="HI96" s="5"/>
+      <c r="HJ96" s="5"/>
+      <c r="HK96" s="5"/>
+      <c r="HL96" s="5"/>
+      <c r="HM96" s="5"/>
+      <c r="HN96" s="5"/>
+      <c r="HO96" s="5"/>
+      <c r="HP96" s="5"/>
+    </row>
+    <row r="97" spans="201:224" ht="15" customHeight="1">
+      <c r="GY97" s="5"/>
+      <c r="GZ97" s="5"/>
+      <c r="HA97" s="5"/>
+      <c r="HB97" s="5"/>
+      <c r="HC97" s="5"/>
+      <c r="HD97" s="5"/>
+      <c r="HE97" s="5"/>
+      <c r="HF97" s="5"/>
+      <c r="HG97" s="5"/>
+      <c r="HH97" s="5"/>
+      <c r="HI97" s="5"/>
+      <c r="HJ97" s="5"/>
+      <c r="HK97" s="5"/>
+      <c r="HL97" s="5"/>
+      <c r="HM97" s="5"/>
+      <c r="HN97" s="5"/>
+      <c r="HO97" s="5"/>
+      <c r="HP97" s="5"/>
+    </row>
+    <row r="98" spans="201:224" ht="15" customHeight="1">
+      <c r="GY98" s="5"/>
+      <c r="GZ98" s="5"/>
+      <c r="HA98" s="5"/>
+      <c r="HB98" s="5"/>
+      <c r="HC98" s="5"/>
+      <c r="HD98" s="5"/>
+      <c r="HE98" s="5"/>
+      <c r="HF98" s="5"/>
+      <c r="HG98" s="5"/>
+      <c r="HH98" s="5"/>
+      <c r="HI98" s="5"/>
+      <c r="HJ98" s="5"/>
+      <c r="HK98" s="5"/>
+      <c r="HL98" s="5"/>
+      <c r="HM98" s="5"/>
+      <c r="HN98" s="5"/>
+      <c r="HO98" s="5"/>
+      <c r="HP98" s="5"/>
+    </row>
+    <row r="99" spans="201:224" ht="15" customHeight="1">
+      <c r="GY99" s="5"/>
+      <c r="GZ99" s="5"/>
+      <c r="HA99" s="5"/>
+      <c r="HB99" s="5"/>
+      <c r="HC99" s="5"/>
+      <c r="HD99" s="5"/>
+      <c r="HE99" s="5"/>
+      <c r="HF99" s="5"/>
+      <c r="HG99" s="5"/>
+      <c r="HH99" s="5"/>
+      <c r="HI99" s="5"/>
+      <c r="HJ99" s="5"/>
+      <c r="HK99" s="5"/>
+      <c r="HL99" s="5"/>
+      <c r="HM99" s="5"/>
+      <c r="HN99" s="5"/>
+      <c r="HO99" s="5"/>
+      <c r="HP99" s="5"/>
+    </row>
+    <row r="100" spans="201:224" ht="15" customHeight="1">
+      <c r="GY100" s="5"/>
+      <c r="GZ100" s="5"/>
+      <c r="HA100" s="5"/>
+      <c r="HB100" s="5"/>
+      <c r="HC100" s="5"/>
+      <c r="HD100" s="5"/>
+      <c r="HE100" s="5"/>
+      <c r="HF100" s="5"/>
+      <c r="HG100" s="5"/>
+      <c r="HH100" s="5"/>
+      <c r="HI100" s="5"/>
+      <c r="HJ100" s="5"/>
+      <c r="HK100" s="5"/>
+      <c r="HL100" s="5"/>
+      <c r="HM100" s="5"/>
+      <c r="HN100" s="5"/>
+      <c r="HO100" s="5"/>
+      <c r="HP100" s="5"/>
+    </row>
+    <row r="101" spans="201:224" ht="15" customHeight="1">
+      <c r="GY101" s="5"/>
+      <c r="GZ101" s="5"/>
+      <c r="HA101" s="5"/>
+      <c r="HB101" s="5"/>
+      <c r="HC101" s="5"/>
+      <c r="HD101" s="5"/>
+      <c r="HE101" s="5"/>
+      <c r="HF101" s="5"/>
+      <c r="HG101" s="5"/>
+      <c r="HH101" s="5"/>
+      <c r="HI101" s="5"/>
+      <c r="HJ101" s="5"/>
+      <c r="HK101" s="5"/>
+      <c r="HL101" s="5"/>
+      <c r="HM101" s="5"/>
+      <c r="HN101" s="5"/>
+      <c r="HO101" s="5"/>
+      <c r="HP101" s="5"/>
+    </row>
+    <row r="102" spans="201:224" ht="15" customHeight="1">
+      <c r="GY102" s="5"/>
+      <c r="GZ102" s="5"/>
+      <c r="HA102" s="5"/>
+      <c r="HB102" s="5"/>
+      <c r="HC102" s="5"/>
+      <c r="HD102" s="5"/>
+      <c r="HE102" s="5"/>
+      <c r="HF102" s="5"/>
+      <c r="HG102" s="5"/>
+      <c r="HH102" s="5"/>
+      <c r="HI102" s="5"/>
+      <c r="HJ102" s="5"/>
+      <c r="HK102" s="5"/>
+      <c r="HL102" s="5"/>
+      <c r="HM102" s="5"/>
+      <c r="HN102" s="5"/>
+      <c r="HO102" s="5"/>
+      <c r="HP102" s="5"/>
+    </row>
+    <row r="103" spans="201:224" ht="15" customHeight="1">
+      <c r="GY103" s="5"/>
+      <c r="GZ103" s="5"/>
+      <c r="HA103" s="5"/>
+      <c r="HB103" s="5"/>
+      <c r="HC103" s="5"/>
+      <c r="HD103" s="5"/>
+      <c r="HE103" s="5"/>
+      <c r="HF103" s="5"/>
+      <c r="HG103" s="5"/>
+      <c r="HH103" s="5"/>
+      <c r="HI103" s="5"/>
+      <c r="HJ103" s="5"/>
+      <c r="HK103" s="5"/>
+      <c r="HL103" s="5"/>
+      <c r="HM103" s="5"/>
+      <c r="HN103" s="5"/>
+      <c r="HO103" s="5"/>
+      <c r="HP103" s="5"/>
+    </row>
+    <row r="104" spans="201:224" ht="15" customHeight="1">
+      <c r="GY104" s="5"/>
+      <c r="GZ104" s="5"/>
+      <c r="HA104" s="5"/>
+      <c r="HB104" s="5"/>
+      <c r="HC104" s="5"/>
+      <c r="HD104" s="5"/>
+      <c r="HE104" s="5"/>
+      <c r="HF104" s="5"/>
+      <c r="HG104" s="5"/>
+      <c r="HH104" s="5"/>
+      <c r="HI104" s="5"/>
+      <c r="HJ104" s="5"/>
+      <c r="HK104" s="5"/>
+      <c r="HL104" s="5"/>
+      <c r="HM104" s="5"/>
+      <c r="HN104" s="5"/>
+      <c r="HO104" s="5"/>
+      <c r="HP104" s="5"/>
+    </row>
+    <row r="105" spans="201:224" ht="15" customHeight="1">
+      <c r="GY105" s="5"/>
+      <c r="GZ105" s="5"/>
+      <c r="HA105" s="5"/>
+      <c r="HB105" s="5"/>
+      <c r="HC105" s="5"/>
+      <c r="HD105" s="5"/>
+      <c r="HE105" s="5"/>
+      <c r="HF105" s="5"/>
+      <c r="HG105" s="5"/>
+      <c r="HH105" s="5"/>
+      <c r="HI105" s="5"/>
+      <c r="HJ105" s="5"/>
+      <c r="HK105" s="5"/>
+      <c r="HL105" s="5"/>
+      <c r="HM105" s="5"/>
+      <c r="HN105" s="5"/>
+      <c r="HO105" s="5"/>
+      <c r="HP105" s="5"/>
+    </row>
+    <row r="106" spans="201:224" ht="15" customHeight="1">
+      <c r="GY106" s="5"/>
+      <c r="GZ106" s="5"/>
+      <c r="HA106" s="5"/>
+      <c r="HB106" s="5"/>
+      <c r="HC106" s="5"/>
+      <c r="HD106" s="5"/>
+      <c r="HE106" s="5"/>
+      <c r="HF106" s="5"/>
+      <c r="HG106" s="5"/>
+      <c r="HH106" s="5"/>
+      <c r="HI106" s="5"/>
+      <c r="HJ106" s="5"/>
+      <c r="HK106" s="5"/>
+      <c r="HL106" s="5"/>
+      <c r="HM106" s="5"/>
+      <c r="HN106" s="5"/>
+      <c r="HO106" s="5"/>
+      <c r="HP106" s="5"/>
+    </row>
+    <row r="107" spans="201:224" ht="15" customHeight="1">
+      <c r="GY107" s="5"/>
+      <c r="GZ107" s="5"/>
+      <c r="HA107" s="5"/>
+      <c r="HB107" s="5"/>
+      <c r="HC107" s="5"/>
+      <c r="HD107" s="5"/>
+      <c r="HE107" s="5"/>
+      <c r="HF107" s="5"/>
+      <c r="HG107" s="5"/>
+      <c r="HH107" s="5"/>
+      <c r="HI107" s="5"/>
+      <c r="HJ107" s="5"/>
+      <c r="HK107" s="5"/>
+      <c r="HL107" s="5"/>
+      <c r="HM107" s="5"/>
+      <c r="HN107" s="5"/>
+      <c r="HO107" s="5"/>
+      <c r="HP107" s="5"/>
+    </row>
+    <row r="108" spans="201:224" ht="15" customHeight="1">
+      <c r="GY108" s="5"/>
+      <c r="GZ108" s="5"/>
+      <c r="HA108" s="5"/>
+      <c r="HB108" s="5"/>
+      <c r="HC108" s="5"/>
+      <c r="HD108" s="5"/>
+      <c r="HE108" s="5"/>
+      <c r="HF108" s="5"/>
+      <c r="HG108" s="5"/>
+      <c r="HH108" s="5"/>
+      <c r="HI108" s="5"/>
+      <c r="HJ108" s="5"/>
+      <c r="HK108" s="5"/>
+      <c r="HL108" s="5"/>
+      <c r="HM108" s="5"/>
+      <c r="HN108" s="5"/>
+      <c r="HO108" s="5"/>
+      <c r="HP108" s="5"/>
+    </row>
+    <row r="109" spans="201:224" ht="15" customHeight="1">
+      <c r="GY109" s="5"/>
+      <c r="GZ109" s="5"/>
+      <c r="HA109" s="5"/>
+      <c r="HB109" s="5"/>
+      <c r="HC109" s="5"/>
+      <c r="HD109" s="5"/>
+      <c r="HE109" s="5"/>
+      <c r="HF109" s="5"/>
+      <c r="HG109" s="5"/>
+      <c r="HH109" s="5"/>
+      <c r="HI109" s="5"/>
+      <c r="HJ109" s="5"/>
+      <c r="HK109" s="5"/>
+      <c r="HL109" s="5"/>
+      <c r="HM109" s="5"/>
+      <c r="HN109" s="5"/>
+      <c r="HO109" s="5"/>
+      <c r="HP109" s="5"/>
+    </row>
+    <row r="110" spans="201:224" ht="15" customHeight="1">
+      <c r="GY110" s="5"/>
+      <c r="GZ110" s="5"/>
+      <c r="HA110" s="5"/>
+      <c r="HB110" s="5"/>
+      <c r="HC110" s="5"/>
+      <c r="HD110" s="5"/>
+      <c r="HE110" s="5"/>
+      <c r="HF110" s="5"/>
+      <c r="HG110" s="5"/>
+      <c r="HH110" s="5"/>
+      <c r="HI110" s="5"/>
+      <c r="HJ110" s="5"/>
+      <c r="HK110" s="5"/>
+      <c r="HL110" s="5"/>
+      <c r="HM110" s="5"/>
+      <c r="HN110" s="5"/>
+      <c r="HO110" s="5"/>
+      <c r="HP110" s="5"/>
+    </row>
+    <row r="111" spans="201:224" ht="15" customHeight="1">
+      <c r="GS111" s="5"/>
+      <c r="GT111" s="5"/>
+      <c r="GU111" s="5"/>
+      <c r="GV111" s="5"/>
+      <c r="GW111" s="5"/>
+      <c r="GX111" s="5"/>
+      <c r="GY111" s="5"/>
+      <c r="GZ111" s="5"/>
+      <c r="HA111" s="5"/>
+      <c r="HB111" s="5"/>
+      <c r="HC111" s="5"/>
+      <c r="HD111" s="5"/>
+      <c r="HE111" s="5"/>
+      <c r="HF111" s="5"/>
+      <c r="HG111" s="5"/>
+      <c r="HH111" s="5"/>
+      <c r="HI111" s="5"/>
+      <c r="HJ111" s="5"/>
+      <c r="HK111" s="5"/>
+      <c r="HL111" s="5"/>
+      <c r="HM111" s="5"/>
+      <c r="HN111" s="5"/>
+      <c r="HO111" s="5"/>
+      <c r="HP111" s="5"/>
+    </row>
+    <row r="112" spans="201:224" ht="15" customHeight="1">
+      <c r="GS112" s="5"/>
+      <c r="GT112" s="5"/>
+      <c r="GU112" s="5"/>
+      <c r="GV112" s="5"/>
+      <c r="GW112" s="5"/>
+      <c r="GX112" s="5"/>
+      <c r="GY112" s="5"/>
+      <c r="GZ112" s="5"/>
+      <c r="HA112" s="5"/>
+      <c r="HB112" s="5"/>
+      <c r="HC112" s="5"/>
+      <c r="HD112" s="5"/>
+      <c r="HE112" s="5"/>
+      <c r="HF112" s="5"/>
+      <c r="HG112" s="5"/>
+      <c r="HH112" s="5"/>
+      <c r="HI112" s="5"/>
+      <c r="HJ112" s="5"/>
+      <c r="HK112" s="5"/>
+      <c r="HL112" s="5"/>
+      <c r="HM112" s="5"/>
+      <c r="HN112" s="5"/>
+      <c r="HO112" s="5"/>
+      <c r="HP112" s="5"/>
+    </row>
+    <row r="113" spans="47:224" ht="15" customHeight="1">
+      <c r="GS113" s="5"/>
+      <c r="GT113" s="5"/>
+      <c r="GU113" s="5"/>
+      <c r="GV113" s="5"/>
+      <c r="GW113" s="5"/>
+      <c r="GX113" s="5"/>
+      <c r="GY113" s="5"/>
+      <c r="GZ113" s="5"/>
+      <c r="HA113" s="5"/>
+      <c r="HB113" s="5"/>
+      <c r="HC113" s="5"/>
+      <c r="HD113" s="5"/>
+      <c r="HE113" s="5"/>
+      <c r="HF113" s="5"/>
+      <c r="HG113" s="5"/>
+      <c r="HH113" s="5"/>
+      <c r="HI113" s="5"/>
+      <c r="HJ113" s="5"/>
+      <c r="HK113" s="5"/>
+      <c r="HL113" s="5"/>
+      <c r="HM113" s="5"/>
+      <c r="HN113" s="5"/>
+      <c r="HO113" s="5"/>
+      <c r="HP113" s="5"/>
+    </row>
+    <row r="114" spans="47:224" ht="15" customHeight="1">
+      <c r="GS114" s="5"/>
+      <c r="GT114" s="5"/>
+      <c r="GU114" s="5"/>
+      <c r="GV114" s="5"/>
+      <c r="GW114" s="5"/>
+      <c r="GX114" s="5"/>
+      <c r="GY114" s="5"/>
+      <c r="GZ114" s="5"/>
+      <c r="HA114" s="5"/>
+      <c r="HB114" s="5"/>
+      <c r="HC114" s="5"/>
+      <c r="HD114" s="5"/>
+      <c r="HE114" s="5"/>
+      <c r="HF114" s="5"/>
+      <c r="HG114" s="5"/>
+      <c r="HH114" s="5"/>
+      <c r="HI114" s="5"/>
+      <c r="HJ114" s="5"/>
+      <c r="HK114" s="5"/>
+      <c r="HL114" s="5"/>
+      <c r="HM114" s="5"/>
+      <c r="HN114" s="5"/>
+      <c r="HO114" s="5"/>
+      <c r="HP114" s="5"/>
+    </row>
+    <row r="115" spans="47:224" ht="15" customHeight="1">
+      <c r="GS115" s="5"/>
+      <c r="GT115" s="5"/>
+      <c r="GU115" s="5"/>
+      <c r="GV115" s="5"/>
+      <c r="GW115" s="5"/>
+      <c r="GX115" s="5"/>
+      <c r="GY115" s="5"/>
+      <c r="GZ115" s="5"/>
+      <c r="HA115" s="5"/>
+      <c r="HB115" s="5"/>
+      <c r="HC115" s="5"/>
+      <c r="HD115" s="5"/>
+      <c r="HE115" s="5"/>
+      <c r="HF115" s="5"/>
+      <c r="HG115" s="5"/>
+      <c r="HH115" s="5"/>
+      <c r="HI115" s="5"/>
+      <c r="HJ115" s="5"/>
+      <c r="HK115" s="5"/>
+      <c r="HL115" s="5"/>
+      <c r="HM115" s="5"/>
+      <c r="HN115" s="5"/>
+      <c r="HO115" s="5"/>
+      <c r="HP115" s="5"/>
+    </row>
+    <row r="116" spans="47:224" ht="15" customHeight="1">
+      <c r="GS116" s="5"/>
+      <c r="GT116" s="5"/>
+      <c r="GU116" s="5"/>
+      <c r="GV116" s="5"/>
+      <c r="GW116" s="5"/>
+      <c r="GX116" s="5"/>
+      <c r="GY116" s="5"/>
+      <c r="GZ116" s="5"/>
+      <c r="HA116" s="5"/>
+      <c r="HB116" s="5"/>
+      <c r="HC116" s="5"/>
+      <c r="HD116" s="5"/>
+      <c r="HE116" s="5"/>
+      <c r="HF116" s="5"/>
+      <c r="HG116" s="5"/>
+      <c r="HH116" s="5"/>
+      <c r="HI116" s="5"/>
+      <c r="HJ116" s="5"/>
+      <c r="HK116" s="5"/>
+      <c r="HL116" s="5"/>
+      <c r="HM116" s="5"/>
+      <c r="HN116" s="5"/>
+      <c r="HO116" s="5"/>
+      <c r="HP116" s="5"/>
+    </row>
+    <row r="117" spans="47:224" ht="15" customHeight="1">
+      <c r="GS117" s="5"/>
+      <c r="GT117" s="5"/>
+      <c r="GU117" s="5"/>
+      <c r="GV117" s="5"/>
+      <c r="GW117" s="5"/>
+      <c r="GX117" s="5"/>
+      <c r="GY117" s="5"/>
+      <c r="GZ117" s="5"/>
+      <c r="HA117" s="5"/>
+      <c r="HB117" s="5"/>
+      <c r="HC117" s="5"/>
+      <c r="HD117" s="5"/>
+      <c r="HE117" s="5"/>
+      <c r="HF117" s="5"/>
+      <c r="HG117" s="5"/>
+      <c r="HH117" s="5"/>
+      <c r="HI117" s="5"/>
+      <c r="HJ117" s="5"/>
+      <c r="HK117" s="5"/>
+      <c r="HL117" s="5"/>
+      <c r="HM117" s="5"/>
+      <c r="HN117" s="5"/>
+      <c r="HO117" s="5"/>
+      <c r="HP117" s="5"/>
+    </row>
+    <row r="118" spans="47:224" ht="15" customHeight="1">
+      <c r="GS118" s="5"/>
+      <c r="GT118" s="5"/>
+      <c r="GU118" s="5"/>
+      <c r="GV118" s="5"/>
+      <c r="GW118" s="5"/>
+      <c r="GX118" s="5"/>
+      <c r="GY118" s="5"/>
+      <c r="GZ118" s="5"/>
+      <c r="HA118" s="5"/>
+      <c r="HB118" s="5"/>
+      <c r="HC118" s="5"/>
+      <c r="HD118" s="5"/>
+      <c r="HE118" s="5"/>
+      <c r="HF118" s="5"/>
+      <c r="HG118" s="5"/>
+      <c r="HH118" s="5"/>
+      <c r="HI118" s="5"/>
+      <c r="HJ118" s="5"/>
+      <c r="HK118" s="5"/>
+      <c r="HL118" s="5"/>
+      <c r="HM118" s="5"/>
+      <c r="HN118" s="5"/>
+      <c r="HO118" s="5"/>
+      <c r="HP118" s="5"/>
+    </row>
+    <row r="119" spans="47:224" ht="15" customHeight="1">
+      <c r="GS119" s="5"/>
+      <c r="GT119" s="5"/>
+      <c r="GU119" s="5"/>
+      <c r="GV119" s="5"/>
+      <c r="GW119" s="5"/>
+      <c r="GX119" s="5"/>
+      <c r="GY119" s="5"/>
+      <c r="GZ119" s="5"/>
+      <c r="HA119" s="5"/>
+      <c r="HB119" s="5"/>
+      <c r="HC119" s="5"/>
+      <c r="HD119" s="5"/>
+      <c r="HE119" s="5"/>
+      <c r="HF119" s="5"/>
+      <c r="HG119" s="5"/>
+      <c r="HH119" s="5"/>
+      <c r="HI119" s="5"/>
+      <c r="HJ119" s="5"/>
+      <c r="HK119" s="5"/>
+      <c r="HL119" s="5"/>
+      <c r="HM119" s="5"/>
+      <c r="HN119" s="5"/>
+      <c r="HO119" s="5"/>
+      <c r="HP119" s="5"/>
+    </row>
+    <row r="120" spans="47:224" ht="15" customHeight="1">
+      <c r="GS120" s="5"/>
+      <c r="GT120" s="5"/>
+      <c r="GU120" s="5"/>
+      <c r="GV120" s="5"/>
+      <c r="GW120" s="5"/>
+      <c r="GX120" s="5"/>
+      <c r="GY120" s="5"/>
+      <c r="GZ120" s="5"/>
+      <c r="HA120" s="5"/>
+      <c r="HB120" s="5"/>
+      <c r="HC120" s="5"/>
+      <c r="HD120" s="5"/>
+      <c r="HE120" s="5"/>
+      <c r="HF120" s="5"/>
+      <c r="HG120" s="5"/>
+      <c r="HH120" s="5"/>
+      <c r="HI120" s="5"/>
+      <c r="HJ120" s="5"/>
+      <c r="HK120" s="5"/>
+      <c r="HL120" s="5"/>
+      <c r="HM120" s="5"/>
+      <c r="HN120" s="5"/>
+      <c r="HO120" s="5"/>
+      <c r="HP120" s="5"/>
+    </row>
+    <row r="121" spans="47:224" ht="15" customHeight="1">
+      <c r="GS121" s="5"/>
+      <c r="GT121" s="5"/>
+      <c r="GU121" s="5"/>
+      <c r="GV121" s="5"/>
+      <c r="GW121" s="5"/>
+      <c r="GX121" s="5"/>
+      <c r="GY121" s="5"/>
+      <c r="GZ121" s="5"/>
+      <c r="HA121" s="5"/>
+      <c r="HB121" s="5"/>
+      <c r="HC121" s="5"/>
+      <c r="HD121" s="5"/>
+      <c r="HE121" s="5"/>
+      <c r="HF121" s="5"/>
+      <c r="HG121" s="5"/>
+      <c r="HH121" s="5"/>
+      <c r="HI121" s="5"/>
+      <c r="HJ121" s="5"/>
+      <c r="HK121" s="5"/>
+      <c r="HL121" s="5"/>
+      <c r="HM121" s="5"/>
+      <c r="HN121" s="5"/>
+      <c r="HO121" s="5"/>
+      <c r="HP121" s="5"/>
+    </row>
+    <row r="122" spans="47:224" ht="15" customHeight="1">
+      <c r="GS122" s="5"/>
+      <c r="GT122" s="5"/>
+      <c r="GU122" s="5"/>
+      <c r="GV122" s="5"/>
+      <c r="GW122" s="5"/>
+      <c r="GX122" s="5"/>
+      <c r="GY122" s="5"/>
+      <c r="GZ122" s="5"/>
+      <c r="HA122" s="5"/>
+      <c r="HB122" s="5"/>
+      <c r="HC122" s="5"/>
+      <c r="HD122" s="5"/>
+      <c r="HE122" s="5"/>
+      <c r="HF122" s="5"/>
+      <c r="HG122" s="5"/>
+      <c r="HH122" s="5"/>
+      <c r="HI122" s="5"/>
+      <c r="HJ122" s="5"/>
+      <c r="HK122" s="5"/>
+      <c r="HL122" s="5"/>
+      <c r="HM122" s="5"/>
+      <c r="HN122" s="5"/>
+      <c r="HO122" s="5"/>
+      <c r="HP122" s="5"/>
+    </row>
+    <row r="123" spans="47:224" ht="15" customHeight="1">
+      <c r="AU123" s="5"/>
+      <c r="AV123" s="5"/>
+      <c r="AW123" s="5"/>
+      <c r="AX123" s="5"/>
+      <c r="AY123" s="5"/>
+      <c r="AZ123" s="5"/>
+      <c r="BA123" s="5"/>
+      <c r="BB123" s="5"/>
+      <c r="BC123" s="5"/>
+      <c r="BD123" s="5"/>
+      <c r="BE123" s="5"/>
+      <c r="BF123" s="5"/>
+      <c r="BG123" s="5"/>
+      <c r="BH123" s="5"/>
+      <c r="BI123" s="5"/>
+      <c r="BJ123" s="5"/>
+      <c r="BK123" s="5"/>
+      <c r="BL123" s="5"/>
+      <c r="BM123" s="5"/>
+      <c r="BN123" s="5"/>
+      <c r="BO123" s="5"/>
+      <c r="BP123" s="5"/>
+      <c r="BQ123" s="5"/>
+      <c r="BR123" s="5"/>
+      <c r="BS123" s="5"/>
+      <c r="BT123" s="5"/>
+      <c r="BU123" s="5"/>
+      <c r="BV123" s="5"/>
+      <c r="BW123" s="5"/>
+      <c r="BX123" s="5"/>
+      <c r="BY123" s="5"/>
+      <c r="BZ123" s="5"/>
+      <c r="CA123" s="5"/>
+      <c r="CB123" s="5"/>
+      <c r="CC123" s="5"/>
+      <c r="CD123" s="5"/>
+      <c r="CE123" s="5"/>
+      <c r="CF123" s="5"/>
+      <c r="CG123" s="5"/>
+      <c r="CH123" s="5"/>
+      <c r="CI123" s="5"/>
+      <c r="CJ123" s="5"/>
+      <c r="CK123" s="5"/>
+      <c r="CL123" s="5"/>
+      <c r="CM123" s="5"/>
+      <c r="CN123" s="5"/>
+      <c r="CO123" s="5"/>
+      <c r="CP123" s="5"/>
+      <c r="CQ123" s="5"/>
+      <c r="CR123" s="5"/>
+      <c r="CS123" s="5"/>
+      <c r="CT123" s="5"/>
+      <c r="CU123" s="5"/>
+      <c r="CV123" s="5"/>
+      <c r="CW123" s="5"/>
+      <c r="GS123" s="5"/>
+      <c r="GT123" s="5"/>
+      <c r="GU123" s="5"/>
+      <c r="GV123" s="5"/>
+      <c r="GW123" s="5"/>
+      <c r="GX123" s="5"/>
+      <c r="GY123" s="5"/>
+      <c r="GZ123" s="5"/>
+      <c r="HA123" s="5"/>
+      <c r="HB123" s="5"/>
+      <c r="HC123" s="5"/>
+      <c r="HD123" s="5"/>
+      <c r="HE123" s="5"/>
+      <c r="HF123" s="5"/>
+      <c r="HG123" s="5"/>
+      <c r="HH123" s="5"/>
+      <c r="HI123" s="5"/>
+      <c r="HJ123" s="5"/>
+      <c r="HK123" s="5"/>
+      <c r="HL123" s="5"/>
+      <c r="HM123" s="5"/>
+      <c r="HN123" s="5"/>
+      <c r="HO123" s="5"/>
+      <c r="HP123" s="5"/>
+    </row>
+    <row r="124" spans="47:224" ht="15" customHeight="1">
+      <c r="AU124" s="5"/>
+      <c r="AV124" s="5"/>
+      <c r="AW124" s="5"/>
+      <c r="AX124" s="5"/>
+      <c r="AY124" s="5"/>
+      <c r="AZ124" s="5"/>
+      <c r="BA124" s="5"/>
+      <c r="BB124" s="5"/>
+      <c r="BC124" s="5"/>
+      <c r="BD124" s="5"/>
+      <c r="BE124" s="5"/>
+      <c r="BF124" s="5"/>
+      <c r="BG124" s="5"/>
+      <c r="BH124" s="5"/>
+      <c r="BI124" s="5"/>
+      <c r="BJ124" s="5"/>
+      <c r="BK124" s="5"/>
+      <c r="BL124" s="5"/>
+      <c r="BM124" s="5"/>
+      <c r="BN124" s="5"/>
+      <c r="BO124" s="5"/>
+      <c r="BP124" s="5"/>
+      <c r="BQ124" s="5"/>
+      <c r="BR124" s="5"/>
+      <c r="BS124" s="5"/>
+      <c r="BT124" s="5"/>
+      <c r="BU124" s="5"/>
+      <c r="BV124" s="5"/>
+      <c r="BW124" s="5"/>
+      <c r="BX124" s="5"/>
+      <c r="BY124" s="5"/>
+      <c r="BZ124" s="5"/>
+      <c r="CA124" s="5"/>
+      <c r="CB124" s="5"/>
+      <c r="CC124" s="5"/>
+      <c r="CD124" s="5"/>
+      <c r="CE124" s="5"/>
+      <c r="CF124" s="5"/>
+      <c r="CG124" s="5"/>
+      <c r="CH124" s="5"/>
+      <c r="CI124" s="5"/>
+      <c r="CJ124" s="5"/>
+      <c r="CK124" s="5"/>
+      <c r="CL124" s="5"/>
+      <c r="CM124" s="5"/>
+      <c r="CN124" s="5"/>
+      <c r="CO124" s="5"/>
+      <c r="CP124" s="5"/>
+      <c r="CQ124" s="5"/>
+      <c r="CR124" s="5"/>
+      <c r="CS124" s="5"/>
+      <c r="CT124" s="5"/>
+      <c r="CU124" s="5"/>
+      <c r="CV124" s="5"/>
+      <c r="CW124" s="5"/>
+      <c r="GS124" s="5"/>
+      <c r="GT124" s="5"/>
+      <c r="GU124" s="5"/>
+      <c r="GV124" s="5"/>
+      <c r="GW124" s="5"/>
+      <c r="GX124" s="5"/>
+      <c r="GY124" s="5"/>
+      <c r="GZ124" s="5"/>
+      <c r="HA124" s="5"/>
+      <c r="HB124" s="5"/>
+      <c r="HC124" s="5"/>
+      <c r="HD124" s="5"/>
+      <c r="HE124" s="5"/>
+      <c r="HF124" s="5"/>
+      <c r="HG124" s="5"/>
+      <c r="HH124" s="5"/>
+      <c r="HI124" s="5"/>
+      <c r="HJ124" s="5"/>
+      <c r="HK124" s="5"/>
+      <c r="HL124" s="5"/>
+      <c r="HM124" s="5"/>
+      <c r="HN124" s="5"/>
+      <c r="HO124" s="5"/>
+      <c r="HP124" s="5"/>
+    </row>
+    <row r="125" spans="47:224" ht="15" customHeight="1">
+      <c r="AU125" s="5"/>
+      <c r="AV125" s="5"/>
+      <c r="AW125" s="5"/>
+      <c r="AX125" s="5"/>
+      <c r="AY125" s="5"/>
+      <c r="AZ125" s="5"/>
+      <c r="BA125" s="5"/>
+      <c r="BB125" s="5"/>
+      <c r="BC125" s="5"/>
+      <c r="BD125" s="5"/>
+      <c r="BE125" s="5"/>
+      <c r="BF125" s="5"/>
+      <c r="BG125" s="5"/>
+      <c r="BH125" s="5"/>
+      <c r="BI125" s="5"/>
+      <c r="BJ125" s="5"/>
+      <c r="BK125" s="5"/>
+      <c r="BL125" s="5"/>
+      <c r="BM125" s="5"/>
+      <c r="BN125" s="5"/>
+      <c r="BO125" s="5"/>
+      <c r="BP125" s="5"/>
+      <c r="BQ125" s="5"/>
+      <c r="BR125" s="5"/>
+      <c r="BS125" s="5"/>
+      <c r="BT125" s="5"/>
+      <c r="BU125" s="5"/>
+      <c r="BV125" s="5"/>
+      <c r="BW125" s="5"/>
+      <c r="BX125" s="5"/>
+      <c r="BY125" s="5"/>
+      <c r="BZ125" s="5"/>
+      <c r="CA125" s="5"/>
+      <c r="CB125" s="5"/>
+      <c r="CC125" s="5"/>
+      <c r="CD125" s="5"/>
+      <c r="CE125" s="5"/>
+      <c r="CF125" s="5"/>
+      <c r="CG125" s="5"/>
+      <c r="CH125" s="5"/>
+      <c r="CI125" s="5"/>
+      <c r="CJ125" s="5"/>
+      <c r="CK125" s="5"/>
+      <c r="CL125" s="5"/>
+      <c r="CM125" s="5"/>
+      <c r="CN125" s="5"/>
+      <c r="CO125" s="5"/>
+      <c r="CP125" s="5"/>
+      <c r="CQ125" s="5"/>
+      <c r="CR125" s="5"/>
+      <c r="CS125" s="5"/>
+      <c r="CT125" s="5"/>
+      <c r="CU125" s="5"/>
+      <c r="CV125" s="5"/>
+      <c r="CW125" s="5"/>
+      <c r="CX125" s="4"/>
+      <c r="CY125" s="4"/>
+      <c r="CZ125" s="4"/>
+      <c r="DA125" s="4"/>
+      <c r="DB125" s="4"/>
+      <c r="DC125" s="4"/>
+      <c r="GS125" s="5"/>
+      <c r="GT125" s="5"/>
+      <c r="GU125" s="5"/>
+      <c r="GV125" s="5"/>
+      <c r="GW125" s="5"/>
+      <c r="GX125" s="5"/>
+      <c r="GY125" s="5"/>
+      <c r="GZ125" s="5"/>
+      <c r="HA125" s="5"/>
+      <c r="HB125" s="5"/>
+      <c r="HC125" s="5"/>
+      <c r="HD125" s="5"/>
+      <c r="HE125" s="5"/>
+      <c r="HF125" s="5"/>
+      <c r="HG125" s="5"/>
+      <c r="HH125" s="5"/>
+      <c r="HI125" s="5"/>
+      <c r="HJ125" s="5"/>
+      <c r="HK125" s="5"/>
+      <c r="HL125" s="5"/>
+      <c r="HM125" s="5"/>
+      <c r="HN125" s="5"/>
+      <c r="HO125" s="5"/>
+      <c r="HP125" s="5"/>
+    </row>
+    <row r="126" spans="47:224" ht="15" customHeight="1">
+      <c r="AU126" s="5"/>
+      <c r="AV126" s="5"/>
+      <c r="AW126" s="5"/>
+      <c r="AX126" s="5"/>
+      <c r="AY126" s="5"/>
+      <c r="AZ126" s="5"/>
+      <c r="BA126" s="5"/>
+      <c r="BB126" s="5"/>
+      <c r="BC126" s="5"/>
+      <c r="BD126" s="5"/>
+      <c r="BE126" s="5"/>
+      <c r="BF126" s="5"/>
+      <c r="BG126" s="5"/>
+      <c r="BH126" s="5"/>
+      <c r="BI126" s="5"/>
+      <c r="BJ126" s="5"/>
+      <c r="BK126" s="5"/>
+      <c r="BL126" s="5"/>
+      <c r="BM126" s="5"/>
+      <c r="BN126" s="5"/>
+      <c r="BO126" s="5"/>
+      <c r="BP126" s="5"/>
+      <c r="BQ126" s="5"/>
+      <c r="BR126" s="5"/>
+      <c r="BS126" s="5"/>
+      <c r="BT126" s="5"/>
+      <c r="BU126" s="5"/>
+      <c r="BV126" s="5"/>
+      <c r="BW126" s="5"/>
+      <c r="BX126" s="5"/>
+      <c r="BY126" s="5"/>
+      <c r="BZ126" s="5"/>
+      <c r="CA126" s="5"/>
+      <c r="CB126" s="5"/>
+      <c r="CC126" s="5"/>
+      <c r="CD126" s="5"/>
+      <c r="CE126" s="5"/>
+      <c r="CF126" s="5"/>
+      <c r="CG126" s="5"/>
+      <c r="CH126" s="5"/>
+      <c r="CI126" s="5"/>
+      <c r="CJ126" s="5"/>
+      <c r="CK126" s="5"/>
+      <c r="CL126" s="5"/>
+      <c r="CM126" s="5"/>
+      <c r="CN126" s="5"/>
+      <c r="CO126" s="5"/>
+      <c r="CP126" s="5"/>
+      <c r="CQ126" s="5"/>
+      <c r="CR126" s="5"/>
+      <c r="CS126" s="5"/>
+      <c r="CT126" s="5"/>
+      <c r="CU126" s="5"/>
+      <c r="CV126" s="5"/>
+      <c r="CW126" s="5"/>
+      <c r="CX126" s="4"/>
+      <c r="CY126" s="4"/>
+      <c r="CZ126" s="4"/>
+      <c r="DA126" s="4"/>
+      <c r="DB126" s="4"/>
+      <c r="DC126" s="4"/>
+      <c r="GS126" s="5"/>
+      <c r="GT126" s="5"/>
+      <c r="GU126" s="5"/>
+      <c r="GV126" s="5"/>
+      <c r="GW126" s="5"/>
+      <c r="GX126" s="5"/>
+      <c r="GY126" s="5"/>
+      <c r="GZ126" s="5"/>
+      <c r="HA126" s="5"/>
+      <c r="HB126" s="5"/>
+      <c r="HC126" s="5"/>
+      <c r="HD126" s="5"/>
+      <c r="HE126" s="5"/>
+      <c r="HF126" s="5"/>
+      <c r="HG126" s="5"/>
+      <c r="HH126" s="5"/>
+      <c r="HI126" s="5"/>
+      <c r="HJ126" s="5"/>
+      <c r="HK126" s="5"/>
+      <c r="HL126" s="5"/>
+      <c r="HM126" s="5"/>
+      <c r="HN126" s="5"/>
+      <c r="HO126" s="5"/>
+      <c r="HP126" s="5"/>
+    </row>
+    <row r="127" spans="47:224" ht="15" customHeight="1">
+      <c r="AU127" s="5"/>
+      <c r="AV127" s="5"/>
+      <c r="AW127" s="5"/>
+      <c r="AX127" s="5"/>
+      <c r="AY127" s="5"/>
+      <c r="AZ127" s="5"/>
+      <c r="BA127" s="5"/>
+      <c r="BB127" s="5"/>
+      <c r="BC127" s="5"/>
+      <c r="BD127" s="5"/>
+      <c r="BE127" s="5"/>
+      <c r="BF127" s="5"/>
+      <c r="BG127" s="5"/>
+      <c r="BH127" s="5"/>
+      <c r="BI127" s="5"/>
+      <c r="BJ127" s="5"/>
+      <c r="BK127" s="5"/>
+      <c r="BL127" s="5"/>
+      <c r="BM127" s="5"/>
+      <c r="BN127" s="5"/>
+      <c r="BO127" s="5"/>
+      <c r="BP127" s="5"/>
+      <c r="BQ127" s="5"/>
+      <c r="BR127" s="5"/>
+      <c r="BS127" s="5"/>
+      <c r="BT127" s="5"/>
+      <c r="BU127" s="5"/>
+      <c r="BV127" s="5"/>
+      <c r="BW127" s="5"/>
+      <c r="BX127" s="5"/>
+      <c r="BY127" s="5"/>
+      <c r="BZ127" s="5"/>
+      <c r="CA127" s="5"/>
+      <c r="CB127" s="5"/>
+      <c r="CC127" s="5"/>
+      <c r="CD127" s="5"/>
+      <c r="CE127" s="5"/>
+      <c r="CF127" s="5"/>
+      <c r="CG127" s="5"/>
+      <c r="CH127" s="5"/>
+      <c r="CI127" s="5"/>
+      <c r="CJ127" s="5"/>
+      <c r="CK127" s="5"/>
+      <c r="CL127" s="5"/>
+      <c r="CM127" s="5"/>
+      <c r="CN127" s="5"/>
+      <c r="CO127" s="5"/>
+      <c r="CP127" s="5"/>
+      <c r="CQ127" s="5"/>
+      <c r="CR127" s="5"/>
+      <c r="CS127" s="5"/>
+      <c r="CT127" s="5"/>
+      <c r="CU127" s="5"/>
+      <c r="CV127" s="5"/>
+      <c r="CW127" s="5"/>
+      <c r="CX127" s="4"/>
+      <c r="CY127" s="4"/>
+      <c r="CZ127" s="4"/>
+      <c r="DA127" s="4"/>
+      <c r="DB127" s="4"/>
+      <c r="DC127" s="4"/>
+      <c r="GS127" s="5"/>
+      <c r="GT127" s="5"/>
+      <c r="GU127" s="5"/>
+      <c r="GV127" s="5"/>
+      <c r="GW127" s="5"/>
+      <c r="GX127" s="5"/>
+      <c r="GY127" s="5"/>
+      <c r="GZ127" s="5"/>
+      <c r="HA127" s="5"/>
+      <c r="HB127" s="5"/>
+      <c r="HC127" s="5"/>
+      <c r="HD127" s="5"/>
+      <c r="HE127" s="5"/>
+      <c r="HF127" s="5"/>
+      <c r="HG127" s="5"/>
+      <c r="HH127" s="5"/>
+      <c r="HI127" s="5"/>
+      <c r="HJ127" s="5"/>
+      <c r="HK127" s="5"/>
+      <c r="HL127" s="5"/>
+      <c r="HM127" s="5"/>
+      <c r="HN127" s="5"/>
+      <c r="HO127" s="5"/>
+      <c r="HP127" s="5"/>
+    </row>
+    <row r="128" spans="47:224" ht="15" customHeight="1">
+      <c r="AU128" s="5"/>
+      <c r="AV128" s="5"/>
+      <c r="AW128" s="5"/>
+      <c r="AX128" s="5"/>
+      <c r="AY128" s="5"/>
+      <c r="AZ128" s="5"/>
+      <c r="BA128" s="5"/>
+      <c r="BB128" s="5"/>
+      <c r="BC128" s="5"/>
+      <c r="BD128" s="5"/>
+      <c r="BE128" s="5"/>
+      <c r="BF128" s="5"/>
+      <c r="BG128" s="5"/>
+      <c r="BH128" s="5"/>
+      <c r="BI128" s="5"/>
+      <c r="BJ128" s="5"/>
+      <c r="BK128" s="5"/>
+      <c r="BL128" s="5"/>
+      <c r="BM128" s="5"/>
+      <c r="BN128" s="5"/>
+      <c r="BO128" s="5"/>
+      <c r="BP128" s="5"/>
+      <c r="BQ128" s="5"/>
+      <c r="BR128" s="5"/>
+      <c r="BS128" s="5"/>
+      <c r="BT128" s="5"/>
+      <c r="BU128" s="5"/>
+      <c r="BV128" s="5"/>
+      <c r="BW128" s="5"/>
+      <c r="BX128" s="5"/>
+      <c r="BY128" s="5"/>
+      <c r="BZ128" s="5"/>
+      <c r="CA128" s="5"/>
+      <c r="CB128" s="5"/>
+      <c r="CC128" s="5"/>
+      <c r="CD128" s="5"/>
+      <c r="CE128" s="5"/>
+      <c r="CF128" s="5"/>
+      <c r="CG128" s="5"/>
+      <c r="CH128" s="5"/>
+      <c r="CI128" s="5"/>
+      <c r="CJ128" s="5"/>
+      <c r="CK128" s="5"/>
+      <c r="CL128" s="5"/>
+      <c r="CM128" s="5"/>
+      <c r="CN128" s="5"/>
+      <c r="CO128" s="5"/>
+      <c r="CP128" s="5"/>
+      <c r="CQ128" s="5"/>
+      <c r="CR128" s="5"/>
+      <c r="CS128" s="5"/>
+      <c r="CT128" s="5"/>
+      <c r="CU128" s="5"/>
+      <c r="CV128" s="5"/>
+      <c r="CW128" s="5"/>
+      <c r="CX128" s="4"/>
+      <c r="CY128" s="4"/>
+      <c r="CZ128" s="4"/>
+      <c r="DA128" s="4"/>
+      <c r="DB128" s="4"/>
+      <c r="DC128" s="4"/>
+      <c r="GS128" s="5"/>
+      <c r="GT128" s="5"/>
+      <c r="GU128" s="5"/>
+      <c r="GV128" s="5"/>
+      <c r="GW128" s="5"/>
+      <c r="GX128" s="5"/>
+      <c r="GY128" s="5"/>
+      <c r="GZ128" s="5"/>
+      <c r="HA128" s="5"/>
+      <c r="HB128" s="5"/>
+      <c r="HC128" s="5"/>
+      <c r="HD128" s="5"/>
+      <c r="HE128" s="5"/>
+      <c r="HF128" s="5"/>
+      <c r="HG128" s="5"/>
+      <c r="HH128" s="5"/>
+      <c r="HI128" s="5"/>
+      <c r="HJ128" s="5"/>
+      <c r="HK128" s="5"/>
+      <c r="HL128" s="5"/>
+      <c r="HM128" s="5"/>
+      <c r="HN128" s="5"/>
+      <c r="HO128" s="5"/>
+      <c r="HP128" s="5"/>
+    </row>
+    <row r="129" spans="47:224" ht="15" customHeight="1">
+      <c r="AU129" s="5"/>
+      <c r="AV129" s="5"/>
+      <c r="AW129" s="5"/>
+      <c r="AX129" s="5"/>
+      <c r="AY129" s="5"/>
+      <c r="AZ129" s="5"/>
+      <c r="BA129" s="5"/>
+      <c r="BB129" s="5"/>
+      <c r="BC129" s="5"/>
+      <c r="BD129" s="5"/>
+      <c r="BE129" s="5"/>
+      <c r="BF129" s="5"/>
+      <c r="BG129" s="5"/>
+      <c r="BH129" s="5"/>
+      <c r="BI129" s="5"/>
+      <c r="BJ129" s="5"/>
+      <c r="BK129" s="5"/>
+      <c r="BL129" s="5"/>
+      <c r="BM129" s="5"/>
+      <c r="BN129" s="5"/>
+      <c r="BO129" s="5"/>
+      <c r="BP129" s="5"/>
+      <c r="BQ129" s="5"/>
+      <c r="BR129" s="5"/>
+      <c r="BS129" s="5"/>
+      <c r="BT129" s="5"/>
+      <c r="BU129" s="5"/>
+      <c r="BV129" s="5"/>
+      <c r="BW129" s="5"/>
+      <c r="BX129" s="5"/>
+      <c r="BY129" s="5"/>
+      <c r="BZ129" s="5"/>
+      <c r="CA129" s="5"/>
+      <c r="CB129" s="5"/>
+      <c r="CC129" s="5"/>
+      <c r="CD129" s="5"/>
+      <c r="CE129" s="5"/>
+      <c r="CF129" s="5"/>
+      <c r="CG129" s="5"/>
+      <c r="CH129" s="5"/>
+      <c r="CI129" s="5"/>
+      <c r="CJ129" s="5"/>
+      <c r="CK129" s="5"/>
+      <c r="CL129" s="5"/>
+      <c r="CM129" s="5"/>
+      <c r="CN129" s="5"/>
+      <c r="CO129" s="5"/>
+      <c r="CP129" s="5"/>
+      <c r="CQ129" s="5"/>
+      <c r="CR129" s="5"/>
+      <c r="CS129" s="5"/>
+      <c r="CT129" s="5"/>
+      <c r="CU129" s="5"/>
+      <c r="CV129" s="5"/>
+      <c r="CW129" s="5"/>
+      <c r="CX129" s="4"/>
+      <c r="CY129" s="4"/>
+      <c r="CZ129" s="4"/>
+      <c r="DA129" s="4"/>
+      <c r="DB129" s="4"/>
+      <c r="DC129" s="4"/>
+      <c r="GS129" s="5"/>
+      <c r="GT129" s="5"/>
+      <c r="GU129" s="5"/>
+      <c r="GV129" s="5"/>
+      <c r="GW129" s="5"/>
+      <c r="GX129" s="5"/>
+      <c r="GY129" s="5"/>
+      <c r="GZ129" s="5"/>
+      <c r="HA129" s="5"/>
+      <c r="HB129" s="5"/>
+      <c r="HC129" s="5"/>
+      <c r="HD129" s="5"/>
+      <c r="HE129" s="5"/>
+      <c r="HF129" s="5"/>
+      <c r="HG129" s="5"/>
+      <c r="HH129" s="5"/>
+      <c r="HI129" s="5"/>
+      <c r="HJ129" s="5"/>
+      <c r="HK129" s="5"/>
+      <c r="HL129" s="5"/>
+      <c r="HM129" s="5"/>
+      <c r="HN129" s="5"/>
+      <c r="HO129" s="5"/>
+      <c r="HP129" s="5"/>
+    </row>
+    <row r="130" spans="47:224" ht="15" customHeight="1">
+      <c r="AU130" s="5"/>
+      <c r="AV130" s="5"/>
+      <c r="AW130" s="5"/>
+      <c r="AX130" s="5"/>
+      <c r="AY130" s="5"/>
+      <c r="AZ130" s="5"/>
+      <c r="BA130" s="5"/>
+      <c r="BB130" s="5"/>
+      <c r="BC130" s="5"/>
+      <c r="BD130" s="5"/>
+      <c r="BE130" s="5"/>
+      <c r="BF130" s="5"/>
+      <c r="BG130" s="5"/>
+      <c r="BH130" s="5"/>
+      <c r="BI130" s="5"/>
+      <c r="BJ130" s="5"/>
+      <c r="BK130" s="5"/>
+      <c r="BL130" s="5"/>
+      <c r="BM130" s="5"/>
+      <c r="BN130" s="5"/>
+      <c r="BO130" s="5"/>
+      <c r="BP130" s="5"/>
+      <c r="BQ130" s="5"/>
+      <c r="BR130" s="5"/>
+      <c r="BS130" s="5"/>
+      <c r="BT130" s="5"/>
+      <c r="BU130" s="5"/>
+      <c r="BV130" s="5"/>
+      <c r="BW130" s="5"/>
+      <c r="BX130" s="5"/>
+      <c r="BY130" s="5"/>
+      <c r="BZ130" s="5"/>
+      <c r="CA130" s="5"/>
+      <c r="CB130" s="5"/>
+      <c r="CC130" s="5"/>
+      <c r="CD130" s="5"/>
+      <c r="CE130" s="5"/>
+      <c r="CF130" s="5"/>
+      <c r="CG130" s="5"/>
+      <c r="CH130" s="5"/>
+      <c r="CI130" s="5"/>
+      <c r="CJ130" s="5"/>
+      <c r="CK130" s="5"/>
+      <c r="CL130" s="5"/>
+      <c r="CM130" s="5"/>
+      <c r="CN130" s="5"/>
+      <c r="CO130" s="5"/>
+      <c r="CP130" s="5"/>
+      <c r="CQ130" s="5"/>
+      <c r="CR130" s="5"/>
+      <c r="CS130" s="5"/>
+      <c r="CT130" s="5"/>
+      <c r="CU130" s="5"/>
+      <c r="CV130" s="5"/>
+      <c r="CW130" s="5"/>
+      <c r="CX130" s="4"/>
+      <c r="CY130" s="4"/>
+      <c r="CZ130" s="4"/>
+      <c r="DA130" s="4"/>
+      <c r="DB130" s="4"/>
+      <c r="DC130" s="4"/>
+      <c r="GS130" s="5"/>
+      <c r="GT130" s="5"/>
+      <c r="GU130" s="5"/>
+      <c r="GV130" s="5"/>
+      <c r="GW130" s="5"/>
+      <c r="GX130" s="5"/>
+      <c r="GY130" s="5"/>
+      <c r="GZ130" s="5"/>
+      <c r="HA130" s="5"/>
+      <c r="HB130" s="5"/>
+      <c r="HC130" s="5"/>
+      <c r="HD130" s="5"/>
+      <c r="HE130" s="5"/>
+      <c r="HF130" s="5"/>
+      <c r="HG130" s="5"/>
+      <c r="HH130" s="5"/>
+      <c r="HI130" s="5"/>
+      <c r="HJ130" s="5"/>
+      <c r="HK130" s="5"/>
+      <c r="HL130" s="5"/>
+      <c r="HM130" s="5"/>
+      <c r="HN130" s="5"/>
+      <c r="HO130" s="5"/>
+      <c r="HP130" s="5"/>
+    </row>
+    <row r="131" spans="47:224" ht="15" customHeight="1">
+      <c r="AU131" s="5"/>
+      <c r="AV131" s="5"/>
+      <c r="AW131" s="5"/>
+      <c r="AX131" s="5"/>
+      <c r="AY131" s="5"/>
+      <c r="AZ131" s="5"/>
+      <c r="BA131" s="5"/>
+      <c r="BB131" s="5"/>
+      <c r="BC131" s="5"/>
+      <c r="BD131" s="5"/>
+      <c r="BE131" s="5"/>
+      <c r="BF131" s="5"/>
+      <c r="BG131" s="5"/>
+      <c r="BH131" s="5"/>
+      <c r="BI131" s="5"/>
+      <c r="BJ131" s="5"/>
+      <c r="BK131" s="5"/>
+      <c r="BL131" s="5"/>
+      <c r="BM131" s="5"/>
+      <c r="BN131" s="5"/>
+      <c r="BO131" s="5"/>
+      <c r="BP131" s="5"/>
+      <c r="BQ131" s="5"/>
+      <c r="BR131" s="5"/>
+      <c r="BS131" s="5"/>
+      <c r="BT131" s="5"/>
+      <c r="BU131" s="5"/>
+      <c r="BV131" s="5"/>
+      <c r="BW131" s="5"/>
+      <c r="BX131" s="5"/>
+      <c r="BY131" s="5"/>
+      <c r="BZ131" s="5"/>
+      <c r="CA131" s="5"/>
+      <c r="CB131" s="5"/>
+      <c r="CC131" s="5"/>
+      <c r="CD131" s="5"/>
+      <c r="CE131" s="5"/>
+      <c r="CF131" s="5"/>
+      <c r="CG131" s="5"/>
+      <c r="CH131" s="5"/>
+      <c r="CI131" s="5"/>
+      <c r="CJ131" s="5"/>
+      <c r="CK131" s="5"/>
+      <c r="CL131" s="5"/>
+      <c r="CM131" s="5"/>
+      <c r="CN131" s="5"/>
+      <c r="CO131" s="5"/>
+      <c r="CP131" s="5"/>
+      <c r="CQ131" s="5"/>
+      <c r="CR131" s="5"/>
+      <c r="CS131" s="5"/>
+      <c r="CT131" s="5"/>
+      <c r="CU131" s="5"/>
+      <c r="CV131" s="5"/>
+      <c r="CW131" s="5"/>
+      <c r="CX131" s="4"/>
+      <c r="CY131" s="4"/>
+      <c r="CZ131" s="4"/>
+      <c r="DA131" s="4"/>
+      <c r="DB131" s="4"/>
+      <c r="DC131" s="4"/>
+      <c r="GS131" s="5"/>
+      <c r="GT131" s="5"/>
+      <c r="GU131" s="5"/>
+      <c r="GV131" s="5"/>
+      <c r="GW131" s="5"/>
+      <c r="GX131" s="5"/>
+      <c r="GY131" s="5"/>
+      <c r="GZ131" s="5"/>
+      <c r="HA131" s="5"/>
+      <c r="HB131" s="5"/>
+      <c r="HC131" s="5"/>
+      <c r="HD131" s="5"/>
+      <c r="HE131" s="5"/>
+      <c r="HF131" s="5"/>
+      <c r="HG131" s="5"/>
+      <c r="HH131" s="5"/>
+      <c r="HI131" s="5"/>
+      <c r="HJ131" s="5"/>
+      <c r="HK131" s="5"/>
+      <c r="HL131" s="5"/>
+      <c r="HM131" s="5"/>
+      <c r="HN131" s="5"/>
+      <c r="HO131" s="5"/>
+      <c r="HP131" s="5"/>
+    </row>
+    <row r="132" spans="47:224" ht="15" customHeight="1">
+      <c r="AU132" s="5"/>
+      <c r="AV132" s="5"/>
+      <c r="AW132" s="5"/>
+      <c r="AX132" s="5"/>
+      <c r="AY132" s="5"/>
+      <c r="AZ132" s="5"/>
+      <c r="BA132" s="5"/>
+      <c r="BB132" s="5"/>
+      <c r="BC132" s="5"/>
+      <c r="BD132" s="5"/>
+      <c r="BE132" s="5"/>
+      <c r="BF132" s="5"/>
+      <c r="BG132" s="5"/>
+      <c r="BH132" s="5"/>
+      <c r="BI132" s="5"/>
+      <c r="BJ132" s="5"/>
+      <c r="BK132" s="5"/>
+      <c r="BL132" s="5"/>
+      <c r="BM132" s="5"/>
+      <c r="BN132" s="5"/>
+      <c r="BO132" s="5"/>
+      <c r="BP132" s="5"/>
+      <c r="BQ132" s="5"/>
+      <c r="BR132" s="5"/>
+      <c r="BS132" s="5"/>
+      <c r="BT132" s="5"/>
+      <c r="BU132" s="5"/>
+      <c r="BV132" s="5"/>
+      <c r="BW132" s="5"/>
+      <c r="BX132" s="5"/>
+      <c r="BY132" s="5"/>
+      <c r="BZ132" s="5"/>
+      <c r="CA132" s="5"/>
+      <c r="CB132" s="5"/>
+      <c r="CC132" s="5"/>
+      <c r="CD132" s="5"/>
+      <c r="CE132" s="5"/>
+      <c r="CF132" s="5"/>
+      <c r="CG132" s="5"/>
+      <c r="CH132" s="5"/>
+      <c r="CI132" s="5"/>
+      <c r="CJ132" s="5"/>
+      <c r="CK132" s="5"/>
+      <c r="CL132" s="5"/>
+      <c r="CM132" s="5"/>
+      <c r="CN132" s="5"/>
+      <c r="CO132" s="5"/>
+      <c r="CP132" s="5"/>
+      <c r="CQ132" s="5"/>
+      <c r="CR132" s="5"/>
+      <c r="CS132" s="5"/>
+      <c r="CT132" s="5"/>
+      <c r="CU132" s="5"/>
+      <c r="CV132" s="5"/>
+      <c r="CW132" s="5"/>
+      <c r="CX132" s="4"/>
+      <c r="CY132" s="4"/>
+      <c r="CZ132" s="4"/>
+      <c r="DA132" s="4"/>
+      <c r="DB132" s="4"/>
+      <c r="DC132" s="4"/>
+      <c r="GS132" s="5"/>
+      <c r="GT132" s="5"/>
+      <c r="GU132" s="5"/>
+      <c r="GV132" s="5"/>
+      <c r="GW132" s="5"/>
+      <c r="GX132" s="5"/>
+      <c r="GY132" s="5"/>
+      <c r="GZ132" s="5"/>
+      <c r="HA132" s="5"/>
+      <c r="HB132" s="5"/>
+      <c r="HC132" s="5"/>
+      <c r="HD132" s="5"/>
+      <c r="HE132" s="5"/>
+      <c r="HF132" s="5"/>
+      <c r="HG132" s="5"/>
+      <c r="HH132" s="5"/>
+      <c r="HI132" s="5"/>
+      <c r="HJ132" s="5"/>
+      <c r="HK132" s="5"/>
+      <c r="HL132" s="5"/>
+      <c r="HM132" s="5"/>
+      <c r="HN132" s="5"/>
+      <c r="HO132" s="5"/>
+      <c r="HP132" s="5"/>
+    </row>
+    <row r="133" spans="47:224" ht="15" customHeight="1">
+      <c r="AU133" s="5"/>
+      <c r="AV133" s="5"/>
+      <c r="AW133" s="5"/>
+      <c r="AX133" s="5"/>
+      <c r="AY133" s="5"/>
+      <c r="AZ133" s="5"/>
+      <c r="BA133" s="5"/>
+      <c r="BB133" s="5"/>
+      <c r="BC133" s="5"/>
+      <c r="BD133" s="5"/>
+      <c r="BE133" s="5"/>
+      <c r="BF133" s="5"/>
+      <c r="BG133" s="5"/>
+      <c r="BH133" s="5"/>
+      <c r="BI133" s="5"/>
+      <c r="BJ133" s="5"/>
+      <c r="BK133" s="5"/>
+      <c r="BL133" s="5"/>
+      <c r="BM133" s="5"/>
+      <c r="BN133" s="5"/>
+      <c r="BO133" s="5"/>
+      <c r="BP133" s="5"/>
+      <c r="BQ133" s="5"/>
+      <c r="BR133" s="5"/>
+      <c r="BS133" s="5"/>
+      <c r="BT133" s="5"/>
+      <c r="BU133" s="5"/>
+      <c r="BV133" s="5"/>
+      <c r="BW133" s="5"/>
+      <c r="BX133" s="5"/>
+      <c r="BY133" s="5"/>
+      <c r="BZ133" s="5"/>
+      <c r="CA133" s="5"/>
+      <c r="CB133" s="5"/>
+      <c r="CC133" s="5"/>
+      <c r="CD133" s="5"/>
+      <c r="CE133" s="5"/>
+      <c r="CF133" s="5"/>
+      <c r="CG133" s="5"/>
+      <c r="CH133" s="5"/>
+      <c r="CI133" s="5"/>
+      <c r="CJ133" s="5"/>
+      <c r="CK133" s="5"/>
+      <c r="CL133" s="5"/>
+      <c r="CM133" s="5"/>
+      <c r="CN133" s="5"/>
+      <c r="CO133" s="5"/>
+      <c r="CP133" s="5"/>
+      <c r="CQ133" s="5"/>
+      <c r="CR133" s="5"/>
+      <c r="CS133" s="5"/>
+      <c r="CT133" s="5"/>
+      <c r="CU133" s="5"/>
+      <c r="CV133" s="5"/>
+      <c r="CW133" s="5"/>
+      <c r="CX133" s="4"/>
+      <c r="CY133" s="4"/>
+      <c r="CZ133" s="4"/>
+      <c r="DA133" s="4"/>
+      <c r="DB133" s="4"/>
+      <c r="DC133" s="4"/>
+      <c r="GS133" s="5"/>
+      <c r="GT133" s="5"/>
+      <c r="GU133" s="5"/>
+      <c r="GV133" s="5"/>
+      <c r="GW133" s="5"/>
+      <c r="GX133" s="5"/>
+      <c r="GY133" s="5"/>
+      <c r="GZ133" s="5"/>
+      <c r="HA133" s="5"/>
+      <c r="HB133" s="5"/>
+      <c r="HC133" s="5"/>
+      <c r="HD133" s="5"/>
+      <c r="HE133" s="5"/>
+      <c r="HF133" s="5"/>
+      <c r="HG133" s="5"/>
+      <c r="HH133" s="5"/>
+      <c r="HI133" s="5"/>
+      <c r="HJ133" s="5"/>
+      <c r="HK133" s="5"/>
+      <c r="HL133" s="5"/>
+      <c r="HM133" s="5"/>
+      <c r="HN133" s="5"/>
+      <c r="HO133" s="5"/>
+      <c r="HP133" s="5"/>
+    </row>
+    <row r="134" spans="47:224" ht="15" customHeight="1">
+      <c r="AU134" s="5"/>
+      <c r="AV134" s="5"/>
+      <c r="AW134" s="5"/>
+      <c r="AX134" s="5"/>
+      <c r="AY134" s="5"/>
+      <c r="AZ134" s="5"/>
+      <c r="BA134" s="5"/>
+      <c r="BB134" s="5"/>
+      <c r="BC134" s="5"/>
+      <c r="BD134" s="5"/>
+      <c r="BE134" s="5"/>
+      <c r="BF134" s="5"/>
+      <c r="BG134" s="5"/>
+      <c r="BH134" s="5"/>
+      <c r="BI134" s="5"/>
+      <c r="BJ134" s="5"/>
+      <c r="BK134" s="5"/>
+      <c r="BL134" s="5"/>
+      <c r="BM134" s="5"/>
+      <c r="BN134" s="5"/>
+      <c r="BO134" s="5"/>
+      <c r="BP134" s="5"/>
+      <c r="BQ134" s="5"/>
+      <c r="BR134" s="5"/>
+      <c r="BS134" s="5"/>
+      <c r="BT134" s="5"/>
+      <c r="BU134" s="5"/>
+      <c r="BV134" s="5"/>
+      <c r="BW134" s="5"/>
+      <c r="BX134" s="5"/>
+      <c r="BY134" s="5"/>
+      <c r="BZ134" s="5"/>
+      <c r="CA134" s="5"/>
+      <c r="CB134" s="5"/>
+      <c r="CC134" s="5"/>
+      <c r="CD134" s="5"/>
+      <c r="CE134" s="5"/>
+      <c r="CF134" s="5"/>
+      <c r="CG134" s="5"/>
+      <c r="CH134" s="5"/>
+      <c r="CI134" s="5"/>
+      <c r="CJ134" s="5"/>
+      <c r="CK134" s="5"/>
+      <c r="CL134" s="5"/>
+      <c r="CM134" s="5"/>
+      <c r="CN134" s="5"/>
+      <c r="CO134" s="5"/>
+      <c r="CP134" s="5"/>
+      <c r="CQ134" s="5"/>
+      <c r="CR134" s="5"/>
+      <c r="CS134" s="5"/>
+      <c r="CT134" s="5"/>
+      <c r="CU134" s="5"/>
+      <c r="CV134" s="5"/>
+      <c r="CW134" s="5"/>
+      <c r="CX134" s="4"/>
+      <c r="CY134" s="4"/>
+      <c r="CZ134" s="4"/>
+      <c r="DA134" s="4"/>
+      <c r="DB134" s="4"/>
+      <c r="DC134" s="4"/>
+      <c r="GS134" s="5"/>
+      <c r="GT134" s="5"/>
+      <c r="GU134" s="5"/>
+      <c r="GV134" s="5"/>
+      <c r="GW134" s="5"/>
+      <c r="GX134" s="5"/>
+      <c r="GY134" s="5"/>
+      <c r="GZ134" s="5"/>
+      <c r="HA134" s="5"/>
+      <c r="HB134" s="5"/>
+      <c r="HC134" s="5"/>
+      <c r="HD134" s="5"/>
+      <c r="HE134" s="5"/>
+      <c r="HF134" s="5"/>
+      <c r="HG134" s="5"/>
+      <c r="HH134" s="5"/>
+      <c r="HI134" s="5"/>
+      <c r="HJ134" s="5"/>
+      <c r="HK134" s="5"/>
+      <c r="HL134" s="5"/>
+      <c r="HM134" s="5"/>
+      <c r="HN134" s="5"/>
+      <c r="HO134" s="5"/>
+      <c r="HP134" s="5"/>
+    </row>
+    <row r="135" spans="47:224" ht="15" customHeight="1">
+      <c r="AU135" s="5"/>
+      <c r="AV135" s="5"/>
+      <c r="AW135" s="5"/>
+      <c r="AX135" s="5"/>
+      <c r="AY135" s="5"/>
+      <c r="AZ135" s="5"/>
+      <c r="BA135" s="5"/>
+      <c r="BB135" s="5"/>
+      <c r="BC135" s="5"/>
+      <c r="BD135" s="5"/>
+      <c r="BE135" s="5"/>
+      <c r="BF135" s="5"/>
+      <c r="BG135" s="5"/>
+      <c r="BH135" s="5"/>
+      <c r="BI135" s="5"/>
+      <c r="BJ135" s="5"/>
+      <c r="BK135" s="5"/>
+      <c r="BL135" s="5"/>
+      <c r="BM135" s="5"/>
+      <c r="BN135" s="5"/>
+      <c r="BO135" s="5"/>
+      <c r="BP135" s="5"/>
+      <c r="BQ135" s="5"/>
+      <c r="BR135" s="5"/>
+      <c r="BS135" s="5"/>
+      <c r="BT135" s="5"/>
+      <c r="BU135" s="5"/>
+      <c r="BV135" s="5"/>
+      <c r="BW135" s="5"/>
+      <c r="BX135" s="5"/>
+      <c r="BY135" s="5"/>
+      <c r="BZ135" s="5"/>
+      <c r="CA135" s="5"/>
+      <c r="CB135" s="5"/>
+      <c r="CC135" s="5"/>
+      <c r="CD135" s="5"/>
+      <c r="CE135" s="5"/>
+      <c r="CF135" s="5"/>
+      <c r="CG135" s="5"/>
+      <c r="CH135" s="5"/>
+      <c r="CI135" s="5"/>
+      <c r="CJ135" s="5"/>
+      <c r="CK135" s="5"/>
+      <c r="CL135" s="5"/>
+      <c r="CM135" s="5"/>
+      <c r="CN135" s="5"/>
+      <c r="CO135" s="5"/>
+      <c r="CP135" s="5"/>
+      <c r="CQ135" s="5"/>
+      <c r="CR135" s="5"/>
+      <c r="CS135" s="5"/>
+      <c r="CT135" s="5"/>
+      <c r="CU135" s="5"/>
+      <c r="CV135" s="5"/>
+      <c r="CW135" s="5"/>
+      <c r="GS135" s="5"/>
+      <c r="GT135" s="5"/>
+      <c r="GU135" s="5"/>
+      <c r="GV135" s="5"/>
+      <c r="GW135" s="5"/>
+      <c r="GX135" s="5"/>
+      <c r="GY135" s="5"/>
+      <c r="GZ135" s="5"/>
+      <c r="HA135" s="5"/>
+      <c r="HB135" s="5"/>
+      <c r="HC135" s="5"/>
+      <c r="HD135" s="5"/>
+      <c r="HE135" s="5"/>
+      <c r="HF135" s="5"/>
+      <c r="HG135" s="5"/>
+      <c r="HH135" s="5"/>
+      <c r="HI135" s="5"/>
+      <c r="HJ135" s="5"/>
+      <c r="HK135" s="5"/>
+      <c r="HL135" s="5"/>
+      <c r="HM135" s="5"/>
+      <c r="HN135" s="5"/>
+      <c r="HO135" s="5"/>
+      <c r="HP135" s="5"/>
+    </row>
+    <row r="136" spans="47:224" ht="15" customHeight="1">
+      <c r="AU136" s="5"/>
+      <c r="AV136" s="5"/>
+      <c r="AW136" s="5"/>
+      <c r="AX136" s="5"/>
+      <c r="AY136" s="5"/>
+      <c r="AZ136" s="5"/>
+      <c r="BA136" s="5"/>
+      <c r="BB136" s="5"/>
+      <c r="BC136" s="5"/>
+      <c r="BD136" s="5"/>
+      <c r="BE136" s="5"/>
+      <c r="BF136" s="5"/>
+      <c r="BG136" s="5"/>
+      <c r="BH136" s="5"/>
+      <c r="BI136" s="5"/>
+      <c r="BJ136" s="5"/>
+      <c r="BK136" s="5"/>
+      <c r="BL136" s="5"/>
+      <c r="BM136" s="5"/>
+      <c r="BN136" s="5"/>
+      <c r="BO136" s="5"/>
+      <c r="BP136" s="5"/>
+      <c r="BQ136" s="5"/>
+      <c r="BR136" s="5"/>
+      <c r="BS136" s="5"/>
+      <c r="BT136" s="5"/>
+      <c r="BU136" s="5"/>
+      <c r="BV136" s="5"/>
+      <c r="BW136" s="5"/>
+      <c r="BX136" s="5"/>
+      <c r="BY136" s="5"/>
+      <c r="BZ136" s="5"/>
+      <c r="CA136" s="5"/>
+      <c r="CB136" s="5"/>
+      <c r="CC136" s="5"/>
+      <c r="CD136" s="5"/>
+      <c r="CE136" s="5"/>
+      <c r="CF136" s="5"/>
+      <c r="CG136" s="5"/>
+      <c r="CH136" s="5"/>
+      <c r="CI136" s="5"/>
+      <c r="CJ136" s="5"/>
+      <c r="CK136" s="5"/>
+      <c r="CL136" s="5"/>
+      <c r="CM136" s="5"/>
+      <c r="CN136" s="5"/>
+      <c r="CO136" s="5"/>
+      <c r="CP136" s="5"/>
+      <c r="CQ136" s="5"/>
+      <c r="CR136" s="5"/>
+      <c r="CS136" s="5"/>
+      <c r="CT136" s="5"/>
+      <c r="CU136" s="5"/>
+      <c r="CV136" s="5"/>
+      <c r="CW136" s="5"/>
+      <c r="GS136" s="5"/>
+      <c r="GT136" s="5"/>
+      <c r="GU136" s="5"/>
+      <c r="GV136" s="5"/>
+      <c r="GW136" s="5"/>
+      <c r="GX136" s="5"/>
+      <c r="GY136" s="5"/>
+      <c r="GZ136" s="5"/>
+      <c r="HA136" s="5"/>
+      <c r="HB136" s="5"/>
+      <c r="HC136" s="5"/>
+      <c r="HD136" s="5"/>
+      <c r="HE136" s="5"/>
+      <c r="HF136" s="5"/>
+      <c r="HG136" s="5"/>
+      <c r="HH136" s="5"/>
+      <c r="HI136" s="5"/>
+      <c r="HJ136" s="5"/>
+      <c r="HK136" s="5"/>
+      <c r="HL136" s="5"/>
+      <c r="HM136" s="5"/>
+      <c r="HN136" s="5"/>
+      <c r="HO136" s="5"/>
+      <c r="HP136" s="5"/>
+    </row>
+    <row r="137" spans="47:224" ht="15" customHeight="1">
+      <c r="AU137" s="5"/>
+      <c r="AV137" s="5"/>
+      <c r="AW137" s="5"/>
+      <c r="AX137" s="5"/>
+      <c r="AY137" s="5"/>
+      <c r="AZ137" s="5"/>
+      <c r="BA137" s="5"/>
+      <c r="BB137" s="5"/>
+      <c r="BC137" s="5"/>
+      <c r="BD137" s="5"/>
+      <c r="BE137" s="5"/>
+      <c r="BF137" s="5"/>
+      <c r="BG137" s="5"/>
+      <c r="BH137" s="5"/>
+      <c r="BI137" s="5"/>
+      <c r="BJ137" s="5"/>
+      <c r="BK137" s="5"/>
+      <c r="BL137" s="5"/>
+      <c r="BM137" s="5"/>
+      <c r="BN137" s="5"/>
+      <c r="BO137" s="5"/>
+      <c r="BP137" s="5"/>
+      <c r="BQ137" s="5"/>
+      <c r="BR137" s="5"/>
+      <c r="BS137" s="5"/>
+      <c r="BT137" s="5"/>
+      <c r="BU137" s="5"/>
+      <c r="BV137" s="5"/>
+      <c r="BW137" s="5"/>
+      <c r="BX137" s="5"/>
+      <c r="BY137" s="5"/>
+      <c r="BZ137" s="5"/>
+      <c r="CA137" s="5"/>
+      <c r="CB137" s="5"/>
+      <c r="CC137" s="5"/>
+      <c r="CD137" s="5"/>
+      <c r="CE137" s="5"/>
+      <c r="CF137" s="5"/>
+      <c r="CG137" s="5"/>
+      <c r="CH137" s="5"/>
+      <c r="CI137" s="5"/>
+      <c r="CJ137" s="5"/>
+      <c r="CK137" s="5"/>
+      <c r="CL137" s="5"/>
+      <c r="CM137" s="5"/>
+      <c r="CN137" s="5"/>
+      <c r="CO137" s="5"/>
+      <c r="CP137" s="5"/>
+      <c r="CQ137" s="5"/>
+      <c r="CR137" s="5"/>
+      <c r="CS137" s="5"/>
+      <c r="CT137" s="5"/>
+      <c r="CU137" s="5"/>
+      <c r="CV137" s="5"/>
+      <c r="CW137" s="5"/>
+      <c r="GS137" s="5"/>
+      <c r="GT137" s="5"/>
+      <c r="GU137" s="5"/>
+      <c r="GV137" s="5"/>
+      <c r="GW137" s="5"/>
+      <c r="GX137" s="5"/>
+      <c r="GY137" s="5"/>
+      <c r="GZ137" s="5"/>
+      <c r="HA137" s="5"/>
+      <c r="HB137" s="5"/>
+      <c r="HC137" s="5"/>
+      <c r="HD137" s="5"/>
+      <c r="HE137" s="5"/>
+      <c r="HF137" s="5"/>
+      <c r="HG137" s="5"/>
+      <c r="HH137" s="5"/>
+      <c r="HI137" s="5"/>
+      <c r="HJ137" s="5"/>
+      <c r="HK137" s="5"/>
+      <c r="HL137" s="5"/>
+      <c r="HM137" s="5"/>
+      <c r="HN137" s="5"/>
+      <c r="HO137" s="5"/>
+      <c r="HP137" s="5"/>
+    </row>
+    <row r="138" spans="47:224" ht="15" customHeight="1">
+      <c r="AU138" s="5"/>
+      <c r="AV138" s="5"/>
+      <c r="AW138" s="5"/>
+      <c r="AX138" s="5"/>
+      <c r="AY138" s="5"/>
+      <c r="AZ138" s="5"/>
+      <c r="BA138" s="5"/>
+      <c r="BB138" s="5"/>
+      <c r="BC138" s="5"/>
+      <c r="BD138" s="5"/>
+      <c r="BE138" s="5"/>
+      <c r="BF138" s="5"/>
+      <c r="BG138" s="5"/>
+      <c r="BH138" s="5"/>
+      <c r="BI138" s="5"/>
+      <c r="BJ138" s="5"/>
+      <c r="BK138" s="5"/>
+      <c r="BL138" s="5"/>
+      <c r="BM138" s="5"/>
+      <c r="BN138" s="5"/>
+      <c r="BO138" s="5"/>
+      <c r="BP138" s="5"/>
+      <c r="BQ138" s="5"/>
+      <c r="BR138" s="5"/>
+      <c r="BS138" s="5"/>
+      <c r="BT138" s="5"/>
+      <c r="BU138" s="5"/>
+      <c r="BV138" s="5"/>
+      <c r="BW138" s="5"/>
+      <c r="BX138" s="5"/>
+      <c r="BY138" s="5"/>
+      <c r="BZ138" s="5"/>
+      <c r="CA138" s="5"/>
+      <c r="CB138" s="5"/>
+      <c r="CC138" s="5"/>
+      <c r="CD138" s="5"/>
+      <c r="CE138" s="5"/>
+      <c r="CF138" s="5"/>
+      <c r="CG138" s="5"/>
+      <c r="CH138" s="5"/>
+      <c r="CI138" s="5"/>
+      <c r="CJ138" s="5"/>
+      <c r="CK138" s="5"/>
+      <c r="CL138" s="5"/>
+      <c r="CM138" s="5"/>
+      <c r="CN138" s="5"/>
+      <c r="CO138" s="5"/>
+      <c r="CP138" s="5"/>
+      <c r="CQ138" s="5"/>
+      <c r="CR138" s="5"/>
+      <c r="CS138" s="5"/>
+      <c r="CT138" s="5"/>
+      <c r="CU138" s="5"/>
+      <c r="CV138" s="5"/>
+      <c r="CW138" s="5"/>
+      <c r="GS138" s="5"/>
+      <c r="GT138" s="5"/>
+      <c r="GU138" s="5"/>
+      <c r="GV138" s="5"/>
+      <c r="GW138" s="5"/>
+      <c r="GX138" s="5"/>
+      <c r="GY138" s="5"/>
+      <c r="GZ138" s="5"/>
+      <c r="HA138" s="5"/>
+      <c r="HB138" s="5"/>
+      <c r="HC138" s="5"/>
+      <c r="HD138" s="5"/>
+      <c r="HE138" s="5"/>
+      <c r="HF138" s="5"/>
+      <c r="HG138" s="5"/>
+      <c r="HH138" s="5"/>
+      <c r="HI138" s="5"/>
+      <c r="HJ138" s="5"/>
+      <c r="HK138" s="5"/>
+      <c r="HL138" s="5"/>
+      <c r="HM138" s="5"/>
+      <c r="HN138" s="5"/>
+      <c r="HO138" s="5"/>
+      <c r="HP138" s="5"/>
+    </row>
+    <row r="139" spans="47:224" ht="15" customHeight="1">
+      <c r="AU139" s="5"/>
+      <c r="AV139" s="5"/>
+      <c r="AW139" s="5"/>
+      <c r="AX139" s="5"/>
+      <c r="AY139" s="5"/>
+      <c r="AZ139" s="5"/>
+      <c r="BA139" s="5"/>
+      <c r="BB139" s="5"/>
+      <c r="BC139" s="5"/>
+      <c r="BD139" s="5"/>
+      <c r="BE139" s="5"/>
+      <c r="BF139" s="5"/>
+      <c r="BG139" s="5"/>
+      <c r="BH139" s="5"/>
+      <c r="BI139" s="5"/>
+      <c r="BJ139" s="5"/>
+      <c r="BK139" s="5"/>
+      <c r="BL139" s="5"/>
+      <c r="BM139" s="5"/>
+      <c r="BN139" s="5"/>
+      <c r="BO139" s="5"/>
+      <c r="BP139" s="5"/>
+      <c r="BQ139" s="5"/>
+      <c r="BR139" s="5"/>
+      <c r="BS139" s="5"/>
+      <c r="BT139" s="5"/>
+      <c r="BU139" s="5"/>
+      <c r="BV139" s="5"/>
+      <c r="BW139" s="5"/>
+      <c r="BX139" s="5"/>
+      <c r="BY139" s="5"/>
+      <c r="BZ139" s="5"/>
+      <c r="CA139" s="5"/>
+      <c r="CB139" s="5"/>
+      <c r="CC139" s="5"/>
+      <c r="CD139" s="5"/>
+      <c r="CE139" s="5"/>
+      <c r="CF139" s="5"/>
+      <c r="CG139" s="5"/>
+      <c r="CH139" s="5"/>
+      <c r="CI139" s="5"/>
+      <c r="CJ139" s="5"/>
+      <c r="CK139" s="5"/>
+      <c r="CL139" s="5"/>
+      <c r="CM139" s="5"/>
+      <c r="CN139" s="5"/>
+      <c r="CO139" s="5"/>
+      <c r="CP139" s="5"/>
+      <c r="CQ139" s="5"/>
+      <c r="CR139" s="5"/>
+      <c r="CS139" s="5"/>
+      <c r="CT139" s="5"/>
+      <c r="CU139" s="5"/>
+      <c r="CV139" s="5"/>
+      <c r="CW139" s="5"/>
+      <c r="GS139" s="5"/>
+      <c r="GT139" s="5"/>
+      <c r="GU139" s="5"/>
+      <c r="GV139" s="5"/>
+      <c r="GW139" s="5"/>
+      <c r="GX139" s="5"/>
+      <c r="GY139" s="5"/>
+      <c r="GZ139" s="5"/>
+      <c r="HA139" s="5"/>
+      <c r="HB139" s="5"/>
+      <c r="HC139" s="5"/>
+      <c r="HD139" s="5"/>
+      <c r="HE139" s="5"/>
+      <c r="HF139" s="5"/>
+      <c r="HG139" s="5"/>
+      <c r="HH139" s="5"/>
+      <c r="HI139" s="5"/>
+      <c r="HJ139" s="5"/>
+      <c r="HK139" s="5"/>
+      <c r="HL139" s="5"/>
+      <c r="HM139" s="5"/>
+      <c r="HN139" s="5"/>
+      <c r="HO139" s="5"/>
+      <c r="HP139" s="5"/>
+    </row>
+    <row r="140" spans="47:224" ht="15" customHeight="1">
+      <c r="AU140" s="5"/>
+      <c r="AV140" s="5"/>
+      <c r="AW140" s="5"/>
+      <c r="AX140" s="5"/>
+      <c r="AY140" s="5"/>
+      <c r="AZ140" s="5"/>
+      <c r="BA140" s="5"/>
+      <c r="BB140" s="5"/>
+      <c r="BC140" s="5"/>
+      <c r="BD140" s="5"/>
+      <c r="BE140" s="5"/>
+      <c r="BF140" s="5"/>
+      <c r="BG140" s="5"/>
+      <c r="BH140" s="5"/>
+      <c r="BI140" s="5"/>
+      <c r="BJ140" s="5"/>
+      <c r="BK140" s="5"/>
+      <c r="BL140" s="5"/>
+      <c r="BM140" s="5"/>
+      <c r="BN140" s="5"/>
+      <c r="BO140" s="5"/>
+      <c r="BP140" s="5"/>
+      <c r="BQ140" s="5"/>
+      <c r="BR140" s="5"/>
+      <c r="BS140" s="5"/>
+      <c r="BT140" s="5"/>
+      <c r="BU140" s="5"/>
+      <c r="BV140" s="5"/>
+      <c r="BW140" s="5"/>
+      <c r="BX140" s="5"/>
+      <c r="BY140" s="5"/>
+      <c r="BZ140" s="5"/>
+      <c r="CA140" s="5"/>
+      <c r="CB140" s="5"/>
+      <c r="CC140" s="5"/>
+      <c r="CD140" s="5"/>
+      <c r="CE140" s="5"/>
+      <c r="CF140" s="5"/>
+      <c r="CG140" s="5"/>
+      <c r="CH140" s="5"/>
+      <c r="CI140" s="5"/>
+      <c r="CJ140" s="5"/>
+      <c r="CK140" s="5"/>
+      <c r="CL140" s="5"/>
+      <c r="CM140" s="5"/>
+      <c r="CN140" s="5"/>
+      <c r="CO140" s="5"/>
+      <c r="CP140" s="5"/>
+      <c r="CQ140" s="5"/>
+      <c r="CR140" s="5"/>
+      <c r="CS140" s="5"/>
+      <c r="CT140" s="5"/>
+      <c r="CU140" s="5"/>
+      <c r="CV140" s="5"/>
+      <c r="CW140" s="5"/>
+      <c r="GS140" s="5"/>
+      <c r="GT140" s="5"/>
+      <c r="GU140" s="5"/>
+      <c r="GV140" s="5"/>
+      <c r="GW140" s="5"/>
+      <c r="GX140" s="5"/>
+      <c r="GY140" s="5"/>
+      <c r="GZ140" s="5"/>
+      <c r="HA140" s="5"/>
+      <c r="HB140" s="5"/>
+      <c r="HC140" s="5"/>
+      <c r="HD140" s="5"/>
+      <c r="HE140" s="5"/>
+      <c r="HF140" s="5"/>
+      <c r="HG140" s="5"/>
+      <c r="HH140" s="5"/>
+      <c r="HI140" s="5"/>
+      <c r="HJ140" s="5"/>
+      <c r="HK140" s="5"/>
+      <c r="HL140" s="5"/>
+      <c r="HM140" s="5"/>
+      <c r="HN140" s="5"/>
+      <c r="HO140" s="5"/>
+      <c r="HP140" s="5"/>
+    </row>
+    <row r="141" spans="47:224" ht="15" customHeight="1">
+      <c r="AU141" s="5"/>
+      <c r="AV141" s="5"/>
+      <c r="AW141" s="5"/>
+      <c r="AX141" s="5"/>
+      <c r="AY141" s="5"/>
+      <c r="AZ141" s="5"/>
+      <c r="BA141" s="5"/>
+      <c r="BB141" s="5"/>
+      <c r="BC141" s="5"/>
+      <c r="BD141" s="5"/>
+      <c r="BE141" s="5"/>
+      <c r="BF141" s="5"/>
+      <c r="BG141" s="5"/>
+      <c r="BH141" s="5"/>
+      <c r="BI141" s="5"/>
+      <c r="BJ141" s="5"/>
+      <c r="BK141" s="5"/>
+      <c r="BL141" s="5"/>
+      <c r="BM141" s="5"/>
+      <c r="BN141" s="5"/>
+      <c r="BO141" s="5"/>
+      <c r="BP141" s="5"/>
+      <c r="BQ141" s="5"/>
+      <c r="BR141" s="5"/>
+      <c r="BS141" s="5"/>
+      <c r="BT141" s="5"/>
+      <c r="BU141" s="5"/>
+      <c r="BV141" s="5"/>
+      <c r="BW141" s="5"/>
+      <c r="BX141" s="5"/>
+      <c r="BY141" s="5"/>
+      <c r="BZ141" s="5"/>
+      <c r="CA141" s="5"/>
+      <c r="CB141" s="5"/>
+      <c r="CC141" s="5"/>
+      <c r="CD141" s="5"/>
+      <c r="CE141" s="5"/>
+      <c r="CF141" s="5"/>
+      <c r="CG141" s="5"/>
+      <c r="CH141" s="5"/>
+      <c r="CI141" s="5"/>
+      <c r="CJ141" s="5"/>
+      <c r="CK141" s="5"/>
+      <c r="CL141" s="5"/>
+      <c r="CM141" s="5"/>
+      <c r="CN141" s="5"/>
+      <c r="CO141" s="5"/>
+      <c r="CP141" s="5"/>
+      <c r="CQ141" s="5"/>
+      <c r="CR141" s="5"/>
+      <c r="CS141" s="5"/>
+      <c r="CT141" s="5"/>
+      <c r="CU141" s="5"/>
+      <c r="CV141" s="5"/>
+      <c r="CW141" s="5"/>
+      <c r="GS141" s="5"/>
+      <c r="GT141" s="5"/>
+      <c r="GU141" s="5"/>
+      <c r="GV141" s="5"/>
+      <c r="GW141" s="5"/>
+      <c r="GX141" s="5"/>
+      <c r="GY141" s="5"/>
+      <c r="GZ141" s="5"/>
+      <c r="HA141" s="5"/>
+      <c r="HB141" s="5"/>
+      <c r="HC141" s="5"/>
+      <c r="HD141" s="5"/>
+      <c r="HE141" s="5"/>
+      <c r="HF141" s="5"/>
+      <c r="HG141" s="5"/>
+      <c r="HH141" s="5"/>
+      <c r="HI141" s="5"/>
+      <c r="HJ141" s="5"/>
+      <c r="HK141" s="5"/>
+      <c r="HL141" s="5"/>
+      <c r="HM141" s="5"/>
+      <c r="HN141" s="5"/>
+      <c r="HO141" s="5"/>
+      <c r="HP141" s="5"/>
+    </row>
+    <row r="142" spans="47:224" ht="15" customHeight="1">
+      <c r="AU142" s="5"/>
+      <c r="AV142" s="5"/>
+      <c r="AW142" s="5"/>
+      <c r="AX142" s="5"/>
+      <c r="AY142" s="5"/>
+      <c r="AZ142" s="5"/>
+      <c r="BA142" s="5"/>
+      <c r="BB142" s="5"/>
+      <c r="BC142" s="5"/>
+      <c r="BD142" s="5"/>
+      <c r="BE142" s="5"/>
+      <c r="BF142" s="5"/>
+      <c r="BG142" s="5"/>
+      <c r="BH142" s="5"/>
+      <c r="BI142" s="5"/>
+      <c r="BJ142" s="5"/>
+      <c r="BK142" s="5"/>
+      <c r="BL142" s="5"/>
+      <c r="BM142" s="5"/>
+      <c r="BN142" s="5"/>
+      <c r="BO142" s="5"/>
+      <c r="BP142" s="5"/>
+      <c r="BQ142" s="5"/>
+      <c r="BR142" s="5"/>
+      <c r="BS142" s="5"/>
+      <c r="BT142" s="5"/>
+      <c r="BU142" s="5"/>
+      <c r="BV142" s="5"/>
+      <c r="BW142" s="5"/>
+      <c r="BX142" s="5"/>
+      <c r="BY142" s="5"/>
+      <c r="BZ142" s="5"/>
+      <c r="CA142" s="5"/>
+      <c r="CB142" s="5"/>
+      <c r="CC142" s="5"/>
+      <c r="CD142" s="5"/>
+      <c r="CE142" s="5"/>
+      <c r="CF142" s="5"/>
+      <c r="CG142" s="5"/>
+      <c r="CH142" s="5"/>
+      <c r="CI142" s="5"/>
+      <c r="CJ142" s="5"/>
+      <c r="CK142" s="5"/>
+      <c r="CL142" s="5"/>
+      <c r="CM142" s="5"/>
+      <c r="CN142" s="5"/>
+      <c r="CO142" s="5"/>
+      <c r="CP142" s="5"/>
+      <c r="CQ142" s="5"/>
+      <c r="CR142" s="5"/>
+      <c r="CS142" s="5"/>
+      <c r="CT142" s="5"/>
+      <c r="CU142" s="5"/>
+      <c r="CV142" s="5"/>
+      <c r="CW142" s="5"/>
+      <c r="GS142" s="5"/>
+      <c r="GT142" s="5"/>
+      <c r="GU142" s="5"/>
+      <c r="GV142" s="5"/>
+      <c r="GW142" s="5"/>
+      <c r="GX142" s="5"/>
+      <c r="GY142" s="5"/>
+      <c r="GZ142" s="5"/>
+      <c r="HA142" s="5"/>
+      <c r="HB142" s="5"/>
+      <c r="HC142" s="5"/>
+      <c r="HD142" s="5"/>
+      <c r="HE142" s="5"/>
+      <c r="HF142" s="5"/>
+      <c r="HG142" s="5"/>
+      <c r="HH142" s="5"/>
+      <c r="HI142" s="5"/>
+      <c r="HJ142" s="5"/>
+      <c r="HK142" s="5"/>
+      <c r="HL142" s="5"/>
+      <c r="HM142" s="5"/>
+      <c r="HN142" s="5"/>
+      <c r="HO142" s="5"/>
+      <c r="HP142" s="5"/>
+    </row>
+    <row r="143" spans="47:224" ht="15" customHeight="1">
+      <c r="AU143" s="5"/>
+      <c r="AV143" s="5"/>
+      <c r="AW143" s="5"/>
+      <c r="AX143" s="5"/>
+      <c r="AY143" s="5"/>
+      <c r="AZ143" s="5"/>
+      <c r="BA143" s="5"/>
+      <c r="BB143" s="5"/>
+      <c r="BC143" s="5"/>
+      <c r="BD143" s="5"/>
+      <c r="BE143" s="5"/>
+      <c r="BF143" s="5"/>
+      <c r="BG143" s="5"/>
+      <c r="BH143" s="5"/>
+      <c r="BI143" s="5"/>
+      <c r="BJ143" s="5"/>
+      <c r="BK143" s="5"/>
+      <c r="BL143" s="5"/>
+      <c r="BM143" s="5"/>
+      <c r="BN143" s="5"/>
+      <c r="BO143" s="5"/>
+      <c r="BP143" s="5"/>
+      <c r="BQ143" s="5"/>
+      <c r="BR143" s="5"/>
+      <c r="BS143" s="5"/>
+      <c r="BT143" s="5"/>
+      <c r="BU143" s="5"/>
+      <c r="BV143" s="5"/>
+      <c r="BW143" s="5"/>
+      <c r="BX143" s="5"/>
+      <c r="BY143" s="5"/>
+      <c r="BZ143" s="5"/>
+      <c r="CA143" s="5"/>
+      <c r="CB143" s="5"/>
+      <c r="CC143" s="5"/>
+      <c r="CD143" s="5"/>
+      <c r="CE143" s="5"/>
+      <c r="CF143" s="5"/>
+      <c r="CG143" s="5"/>
+      <c r="CH143" s="5"/>
+      <c r="CI143" s="5"/>
+      <c r="CJ143" s="5"/>
+      <c r="CK143" s="5"/>
+      <c r="CL143" s="5"/>
+      <c r="CM143" s="5"/>
+      <c r="CN143" s="5"/>
+      <c r="CO143" s="5"/>
+      <c r="CP143" s="5"/>
+      <c r="CQ143" s="5"/>
+      <c r="CR143" s="5"/>
+      <c r="CS143" s="5"/>
+      <c r="CT143" s="5"/>
+      <c r="CU143" s="5"/>
+      <c r="CV143" s="5"/>
+      <c r="CW143" s="5"/>
+      <c r="GS143" s="5"/>
+      <c r="GT143" s="5"/>
+      <c r="GU143" s="5"/>
+      <c r="GV143" s="5"/>
+      <c r="GW143" s="5"/>
+      <c r="GX143" s="5"/>
+      <c r="GY143" s="5"/>
+      <c r="GZ143" s="5"/>
+      <c r="HA143" s="5"/>
+      <c r="HB143" s="5"/>
+      <c r="HC143" s="5"/>
+      <c r="HD143" s="5"/>
+      <c r="HE143" s="5"/>
+      <c r="HF143" s="5"/>
+      <c r="HG143" s="5"/>
+      <c r="HH143" s="5"/>
+      <c r="HI143" s="5"/>
+      <c r="HJ143" s="5"/>
+      <c r="HK143" s="5"/>
+      <c r="HL143" s="5"/>
+      <c r="HM143" s="5"/>
+      <c r="HN143" s="5"/>
+      <c r="HO143" s="5"/>
+      <c r="HP143" s="5"/>
+    </row>
+    <row r="144" spans="47:224" ht="15" customHeight="1">
+      <c r="AU144" s="5"/>
+      <c r="AV144" s="5"/>
+      <c r="AW144" s="5"/>
+      <c r="AX144" s="5"/>
+      <c r="AY144" s="5"/>
+      <c r="AZ144" s="5"/>
+      <c r="BA144" s="5"/>
+      <c r="BB144" s="5"/>
+      <c r="BC144" s="5"/>
+      <c r="BD144" s="5"/>
+      <c r="BE144" s="5"/>
+      <c r="BF144" s="5"/>
+      <c r="BG144" s="5"/>
+      <c r="BH144" s="5"/>
+      <c r="BI144" s="5"/>
+      <c r="BJ144" s="5"/>
+      <c r="BK144" s="5"/>
+      <c r="BL144" s="5"/>
+      <c r="BM144" s="5"/>
+      <c r="BN144" s="5"/>
+      <c r="BO144" s="5"/>
+      <c r="BP144" s="5"/>
+      <c r="BQ144" s="5"/>
+      <c r="BR144" s="5"/>
+      <c r="BS144" s="5"/>
+      <c r="BT144" s="5"/>
+      <c r="BU144" s="5"/>
+      <c r="BV144" s="5"/>
+      <c r="BW144" s="5"/>
+      <c r="BX144" s="5"/>
+      <c r="BY144" s="5"/>
+      <c r="BZ144" s="5"/>
+      <c r="CA144" s="5"/>
+      <c r="CB144" s="5"/>
+      <c r="CC144" s="5"/>
+      <c r="CD144" s="5"/>
+      <c r="CE144" s="5"/>
+      <c r="CF144" s="5"/>
+      <c r="CG144" s="5"/>
+      <c r="CH144" s="5"/>
+      <c r="CI144" s="5"/>
+      <c r="CJ144" s="5"/>
+      <c r="CK144" s="5"/>
+      <c r="CL144" s="5"/>
+      <c r="CM144" s="5"/>
+      <c r="CN144" s="5"/>
+      <c r="CO144" s="5"/>
+      <c r="CP144" s="5"/>
+      <c r="CQ144" s="5"/>
+      <c r="CR144" s="5"/>
+      <c r="CS144" s="5"/>
+      <c r="CT144" s="5"/>
+      <c r="CU144" s="5"/>
+      <c r="CV144" s="5"/>
+      <c r="CW144" s="5"/>
+      <c r="GS144" s="5"/>
+      <c r="GT144" s="5"/>
+      <c r="GU144" s="5"/>
+      <c r="GV144" s="5"/>
+      <c r="GW144" s="5"/>
+      <c r="GX144" s="5"/>
+      <c r="GY144" s="5"/>
+      <c r="GZ144" s="5"/>
+      <c r="HA144" s="5"/>
+      <c r="HB144" s="5"/>
+      <c r="HC144" s="5"/>
+      <c r="HD144" s="5"/>
+      <c r="HE144" s="5"/>
+      <c r="HF144" s="5"/>
+      <c r="HG144" s="5"/>
+      <c r="HH144" s="5"/>
+      <c r="HI144" s="5"/>
+      <c r="HJ144" s="5"/>
+      <c r="HK144" s="5"/>
+      <c r="HL144" s="5"/>
+      <c r="HM144" s="5"/>
+      <c r="HN144" s="5"/>
+      <c r="HO144" s="5"/>
+      <c r="HP144" s="5"/>
+    </row>
+    <row r="145" spans="47:224" ht="15" customHeight="1">
+      <c r="AU145" s="5"/>
+      <c r="AV145" s="5"/>
+      <c r="AW145" s="5"/>
+      <c r="AX145" s="5"/>
+      <c r="AY145" s="5"/>
+      <c r="AZ145" s="5"/>
+      <c r="BA145" s="5"/>
+      <c r="BB145" s="5"/>
+      <c r="BC145" s="5"/>
+      <c r="BD145" s="5"/>
+      <c r="BE145" s="5"/>
+      <c r="BF145" s="5"/>
+      <c r="BG145" s="5"/>
+      <c r="BH145" s="5"/>
+      <c r="BI145" s="5"/>
+      <c r="BJ145" s="5"/>
+      <c r="BK145" s="5"/>
+      <c r="BL145" s="5"/>
+      <c r="BM145" s="5"/>
+      <c r="BN145" s="5"/>
+      <c r="BO145" s="5"/>
+      <c r="BP145" s="5"/>
+      <c r="BQ145" s="5"/>
+      <c r="BR145" s="5"/>
+      <c r="BS145" s="5"/>
+      <c r="BT145" s="5"/>
+      <c r="BU145" s="5"/>
+      <c r="BV145" s="5"/>
+      <c r="BW145" s="5"/>
+      <c r="BX145" s="5"/>
+      <c r="BY145" s="5"/>
+      <c r="BZ145" s="5"/>
+      <c r="CA145" s="5"/>
+      <c r="CB145" s="5"/>
+      <c r="CC145" s="5"/>
+      <c r="CD145" s="5"/>
+      <c r="CE145" s="5"/>
+      <c r="CF145" s="5"/>
+      <c r="CG145" s="5"/>
+      <c r="CH145" s="5"/>
+      <c r="CI145" s="5"/>
+      <c r="CJ145" s="5"/>
+      <c r="CK145" s="5"/>
+      <c r="CL145" s="5"/>
+      <c r="CM145" s="5"/>
+      <c r="CN145" s="5"/>
+      <c r="CO145" s="5"/>
+      <c r="CP145" s="5"/>
+      <c r="CQ145" s="5"/>
+      <c r="CR145" s="5"/>
+      <c r="CS145" s="5"/>
+      <c r="CT145" s="5"/>
+      <c r="CU145" s="5"/>
+      <c r="CV145" s="5"/>
+      <c r="CW145" s="5"/>
+      <c r="GS145" s="5"/>
+      <c r="GT145" s="5"/>
+      <c r="GU145" s="5"/>
+      <c r="GV145" s="5"/>
+      <c r="GW145" s="5"/>
+      <c r="GX145" s="5"/>
+      <c r="GY145" s="5"/>
+      <c r="GZ145" s="5"/>
+      <c r="HA145" s="5"/>
+      <c r="HB145" s="5"/>
+      <c r="HC145" s="5"/>
+      <c r="HD145" s="5"/>
+      <c r="HE145" s="5"/>
+      <c r="HF145" s="5"/>
+      <c r="HG145" s="5"/>
+      <c r="HH145" s="5"/>
+      <c r="HI145" s="5"/>
+      <c r="HJ145" s="5"/>
+      <c r="HK145" s="5"/>
+      <c r="HL145" s="5"/>
+      <c r="HM145" s="5"/>
+      <c r="HN145" s="5"/>
+      <c r="HO145" s="5"/>
+      <c r="HP145" s="5"/>
+    </row>
+    <row r="146" spans="47:224" ht="15" customHeight="1">
+      <c r="AU146" s="5"/>
+      <c r="AV146" s="5"/>
+      <c r="AW146" s="5"/>
+      <c r="AX146" s="5"/>
+      <c r="AY146" s="5"/>
+      <c r="AZ146" s="5"/>
+      <c r="BA146" s="5"/>
+      <c r="BB146" s="5"/>
+      <c r="BC146" s="5"/>
+      <c r="BD146" s="5"/>
+      <c r="BE146" s="5"/>
+      <c r="BF146" s="5"/>
+      <c r="BG146" s="5"/>
+      <c r="BH146" s="5"/>
+      <c r="BI146" s="5"/>
+      <c r="BJ146" s="5"/>
+      <c r="BK146" s="5"/>
+      <c r="BL146" s="5"/>
+      <c r="BM146" s="5"/>
+      <c r="BN146" s="5"/>
+      <c r="BO146" s="5"/>
+      <c r="BP146" s="5"/>
+      <c r="BQ146" s="5"/>
+      <c r="BR146" s="5"/>
+      <c r="BS146" s="5"/>
+      <c r="BT146" s="5"/>
+      <c r="BU146" s="5"/>
+      <c r="BV146" s="5"/>
+      <c r="BW146" s="5"/>
+      <c r="BX146" s="5"/>
+      <c r="BY146" s="5"/>
+      <c r="BZ146" s="5"/>
+      <c r="CA146" s="5"/>
+      <c r="CB146" s="5"/>
+      <c r="CC146" s="5"/>
+      <c r="CD146" s="5"/>
+      <c r="CE146" s="5"/>
+      <c r="CF146" s="5"/>
+      <c r="CG146" s="5"/>
+      <c r="CH146" s="5"/>
+      <c r="CI146" s="5"/>
+      <c r="CJ146" s="5"/>
+      <c r="CK146" s="5"/>
+      <c r="CL146" s="5"/>
+      <c r="CM146" s="5"/>
+      <c r="CN146" s="5"/>
+      <c r="CO146" s="5"/>
+      <c r="CP146" s="5"/>
+      <c r="CQ146" s="5"/>
+      <c r="CR146" s="5"/>
+      <c r="CS146" s="5"/>
+      <c r="CT146" s="5"/>
+      <c r="CU146" s="5"/>
+      <c r="CV146" s="5"/>
+      <c r="CW146" s="5"/>
+      <c r="GS146" s="5"/>
+      <c r="GT146" s="5"/>
+      <c r="GU146" s="5"/>
+      <c r="GV146" s="5"/>
+      <c r="GW146" s="5"/>
+      <c r="GX146" s="5"/>
+      <c r="GY146" s="5"/>
+      <c r="GZ146" s="5"/>
+      <c r="HA146" s="5"/>
+      <c r="HB146" s="5"/>
+      <c r="HC146" s="5"/>
+      <c r="HD146" s="5"/>
+      <c r="HE146" s="5"/>
+      <c r="HF146" s="5"/>
+      <c r="HG146" s="5"/>
+      <c r="HH146" s="5"/>
+      <c r="HI146" s="5"/>
+      <c r="HJ146" s="5"/>
+      <c r="HK146" s="5"/>
+      <c r="HL146" s="5"/>
+      <c r="HM146" s="5"/>
+      <c r="HN146" s="5"/>
+      <c r="HO146" s="5"/>
+      <c r="HP146" s="5"/>
+    </row>
+    <row r="147" spans="47:224" ht="15" customHeight="1">
+      <c r="AU147" s="5"/>
+      <c r="AV147" s="5"/>
+      <c r="AW147" s="5"/>
+      <c r="AX147" s="5"/>
+      <c r="AY147" s="5"/>
+      <c r="AZ147" s="5"/>
+      <c r="BA147" s="5"/>
+      <c r="BB147" s="5"/>
+      <c r="BC147" s="5"/>
+      <c r="BD147" s="5"/>
+      <c r="BE147" s="5"/>
+      <c r="BF147" s="5"/>
+      <c r="BG147" s="5"/>
+      <c r="BH147" s="5"/>
+      <c r="BI147" s="5"/>
+      <c r="BJ147" s="5"/>
+      <c r="BK147" s="5"/>
+      <c r="BL147" s="5"/>
+      <c r="BM147" s="5"/>
+      <c r="BN147" s="5"/>
+      <c r="BO147" s="5"/>
+      <c r="BP147" s="5"/>
+      <c r="BQ147" s="5"/>
+      <c r="BR147" s="5"/>
+      <c r="BS147" s="5"/>
+      <c r="BT147" s="5"/>
+      <c r="BU147" s="5"/>
+      <c r="BV147" s="5"/>
+      <c r="BW147" s="5"/>
+      <c r="BX147" s="5"/>
+      <c r="BY147" s="5"/>
+      <c r="BZ147" s="5"/>
+      <c r="CA147" s="5"/>
+      <c r="CB147" s="5"/>
+      <c r="CC147" s="5"/>
+      <c r="CD147" s="5"/>
+      <c r="CE147" s="5"/>
+      <c r="CF147" s="5"/>
+      <c r="CG147" s="5"/>
+      <c r="CH147" s="5"/>
+      <c r="CI147" s="5"/>
+      <c r="CJ147" s="5"/>
+      <c r="CK147" s="5"/>
+      <c r="CL147" s="5"/>
+      <c r="CM147" s="5"/>
+      <c r="CN147" s="5"/>
+      <c r="CO147" s="5"/>
+      <c r="CP147" s="5"/>
+      <c r="CQ147" s="5"/>
+      <c r="CR147" s="5"/>
+      <c r="CS147" s="5"/>
+      <c r="CT147" s="5"/>
+      <c r="CU147" s="5"/>
+      <c r="CV147" s="5"/>
+      <c r="CW147" s="5"/>
+      <c r="GS147" s="5"/>
+      <c r="GT147" s="5"/>
+      <c r="GU147" s="5"/>
+      <c r="GV147" s="5"/>
+      <c r="GW147" s="5"/>
+      <c r="GX147" s="5"/>
+      <c r="GY147" s="5"/>
+      <c r="GZ147" s="5"/>
+      <c r="HA147" s="5"/>
+      <c r="HB147" s="5"/>
+      <c r="HC147" s="5"/>
+      <c r="HD147" s="5"/>
+      <c r="HE147" s="5"/>
+      <c r="HF147" s="5"/>
+      <c r="HG147" s="5"/>
+      <c r="HH147" s="5"/>
+      <c r="HI147" s="5"/>
+      <c r="HJ147" s="5"/>
+      <c r="HK147" s="5"/>
+      <c r="HL147" s="5"/>
+      <c r="HM147" s="5"/>
+      <c r="HN147" s="5"/>
+      <c r="HO147" s="5"/>
+      <c r="HP147" s="5"/>
+    </row>
+    <row r="148" spans="47:224" ht="15" customHeight="1">
+      <c r="AU148" s="5"/>
+      <c r="AV148" s="5"/>
+      <c r="AW148" s="5"/>
+      <c r="AX148" s="5"/>
+      <c r="AY148" s="5"/>
+      <c r="AZ148" s="5"/>
+      <c r="BA148" s="5"/>
+      <c r="BB148" s="5"/>
+      <c r="BC148" s="5"/>
+      <c r="BD148" s="5"/>
+      <c r="BE148" s="5"/>
+      <c r="BF148" s="5"/>
+      <c r="BG148" s="5"/>
+      <c r="BH148" s="5"/>
+      <c r="BI148" s="5"/>
+      <c r="BJ148" s="5"/>
+      <c r="BK148" s="5"/>
+      <c r="BL148" s="5"/>
+      <c r="BM148" s="5"/>
+      <c r="BN148" s="5"/>
+      <c r="BO148" s="5"/>
+      <c r="BP148" s="5"/>
+      <c r="BQ148" s="5"/>
+      <c r="BR148" s="5"/>
+      <c r="BS148" s="5"/>
+      <c r="BT148" s="5"/>
+      <c r="BU148" s="5"/>
+      <c r="BV148" s="5"/>
+      <c r="BW148" s="5"/>
+      <c r="BX148" s="5"/>
+      <c r="BY148" s="5"/>
+      <c r="BZ148" s="5"/>
+      <c r="CA148" s="5"/>
+      <c r="CB148" s="5"/>
+      <c r="CC148" s="5"/>
+      <c r="CD148" s="5"/>
+      <c r="CE148" s="5"/>
+      <c r="CF148" s="5"/>
+      <c r="CG148" s="5"/>
+      <c r="CH148" s="5"/>
+      <c r="CI148" s="5"/>
+      <c r="CJ148" s="5"/>
+      <c r="CK148" s="5"/>
+      <c r="CL148" s="5"/>
+      <c r="CM148" s="5"/>
+      <c r="CN148" s="5"/>
+      <c r="CO148" s="5"/>
+      <c r="CP148" s="5"/>
+      <c r="CQ148" s="5"/>
+      <c r="CR148" s="5"/>
+      <c r="CS148" s="5"/>
+      <c r="CT148" s="5"/>
+      <c r="CU148" s="5"/>
+      <c r="CV148" s="5"/>
+      <c r="CW148" s="5"/>
+      <c r="GS148" s="5"/>
+      <c r="GT148" s="5"/>
+      <c r="GU148" s="5"/>
+      <c r="GV148" s="5"/>
+      <c r="GW148" s="5"/>
+      <c r="GX148" s="5"/>
+      <c r="GY148" s="5"/>
+      <c r="GZ148" s="5"/>
+      <c r="HA148" s="5"/>
+      <c r="HB148" s="5"/>
+      <c r="HC148" s="5"/>
+      <c r="HD148" s="5"/>
+      <c r="HE148" s="5"/>
+      <c r="HF148" s="5"/>
+      <c r="HG148" s="5"/>
+      <c r="HH148" s="5"/>
+      <c r="HI148" s="5"/>
+      <c r="HJ148" s="5"/>
+      <c r="HK148" s="5"/>
+      <c r="HL148" s="5"/>
+      <c r="HM148" s="5"/>
+      <c r="HN148" s="5"/>
+      <c r="HO148" s="5"/>
+      <c r="HP148" s="5"/>
+    </row>
+    <row r="149" spans="47:224" ht="15" customHeight="1">
+      <c r="GS149" s="5"/>
+      <c r="GT149" s="5"/>
+      <c r="GU149" s="5"/>
+      <c r="GV149" s="5"/>
+      <c r="GW149" s="5"/>
+      <c r="GX149" s="5"/>
+      <c r="GY149" s="5"/>
+      <c r="GZ149" s="5"/>
+      <c r="HA149" s="5"/>
+      <c r="HB149" s="5"/>
+      <c r="HC149" s="5"/>
+      <c r="HD149" s="5"/>
+      <c r="HE149" s="5"/>
+      <c r="HF149" s="5"/>
+      <c r="HG149" s="5"/>
+      <c r="HH149" s="5"/>
+      <c r="HI149" s="5"/>
+      <c r="HJ149" s="5"/>
+      <c r="HK149" s="5"/>
+      <c r="HL149" s="5"/>
+      <c r="HM149" s="5"/>
+      <c r="HN149" s="5"/>
+      <c r="HO149" s="5"/>
+      <c r="HP149" s="5"/>
+    </row>
+    <row r="150" spans="47:224" ht="15" customHeight="1">
+      <c r="GS150" s="5"/>
+      <c r="GT150" s="5"/>
+      <c r="GU150" s="5"/>
+      <c r="GV150" s="5"/>
+      <c r="GW150" s="5"/>
+      <c r="GX150" s="5"/>
+      <c r="GY150" s="5"/>
+      <c r="GZ150" s="5"/>
+      <c r="HA150" s="5"/>
+      <c r="HB150" s="5"/>
+      <c r="HC150" s="5"/>
+      <c r="HD150" s="5"/>
+      <c r="HE150" s="5"/>
+      <c r="HF150" s="5"/>
+      <c r="HG150" s="5"/>
+      <c r="HH150" s="5"/>
+      <c r="HI150" s="5"/>
+      <c r="HJ150" s="5"/>
+      <c r="HK150" s="5"/>
+      <c r="HL150" s="5"/>
+      <c r="HM150" s="5"/>
+      <c r="HN150" s="5"/>
+      <c r="HO150" s="5"/>
+      <c r="HP150" s="5"/>
+    </row>
+    <row r="151" spans="47:224" ht="15" customHeight="1">
+      <c r="GS151" s="5"/>
+      <c r="GT151" s="5"/>
+      <c r="GU151" s="5"/>
+      <c r="GV151" s="5"/>
+      <c r="GW151" s="5"/>
+      <c r="GX151" s="5"/>
+      <c r="GY151" s="5"/>
+      <c r="GZ151" s="5"/>
+      <c r="HA151" s="5"/>
+      <c r="HB151" s="5"/>
+      <c r="HC151" s="5"/>
+      <c r="HD151" s="5"/>
+      <c r="HE151" s="5"/>
+      <c r="HF151" s="5"/>
+      <c r="HG151" s="5"/>
+      <c r="HH151" s="5"/>
+      <c r="HI151" s="5"/>
+      <c r="HJ151" s="5"/>
+      <c r="HK151" s="5"/>
+      <c r="HL151" s="5"/>
+      <c r="HM151" s="5"/>
+      <c r="HN151" s="5"/>
+      <c r="HO151" s="5"/>
+      <c r="HP151" s="5"/>
+    </row>
+    <row r="152" spans="47:224" ht="15" customHeight="1">
+      <c r="GS152" s="5"/>
+      <c r="GT152" s="5"/>
+      <c r="GU152" s="5"/>
+      <c r="GV152" s="5"/>
+      <c r="GW152" s="5"/>
+      <c r="GX152" s="5"/>
+      <c r="GY152" s="5"/>
+      <c r="GZ152" s="5"/>
+      <c r="HA152" s="5"/>
+      <c r="HB152" s="5"/>
+      <c r="HC152" s="5"/>
+      <c r="HD152" s="5"/>
+      <c r="HE152" s="5"/>
+      <c r="HF152" s="5"/>
+      <c r="HG152" s="5"/>
+      <c r="HH152" s="5"/>
+      <c r="HI152" s="5"/>
+      <c r="HJ152" s="5"/>
+      <c r="HK152" s="5"/>
+      <c r="HL152" s="5"/>
+      <c r="HM152" s="5"/>
+      <c r="HN152" s="5"/>
+      <c r="HO152" s="5"/>
+      <c r="HP152" s="5"/>
+    </row>
+    <row r="153" spans="47:224" ht="15" customHeight="1">
+      <c r="GS153" s="5"/>
+      <c r="GT153" s="5"/>
+      <c r="GU153" s="5"/>
+      <c r="GV153" s="5"/>
+      <c r="GW153" s="5"/>
+      <c r="GX153" s="5"/>
+      <c r="GY153" s="5"/>
+      <c r="GZ153" s="5"/>
+      <c r="HA153" s="5"/>
+      <c r="HB153" s="5"/>
+      <c r="HC153" s="5"/>
+      <c r="HD153" s="5"/>
+      <c r="HE153" s="5"/>
+      <c r="HF153" s="5"/>
+      <c r="HG153" s="5"/>
+      <c r="HH153" s="5"/>
+      <c r="HI153" s="5"/>
+      <c r="HJ153" s="5"/>
+      <c r="HK153" s="5"/>
+      <c r="HL153" s="5"/>
+      <c r="HM153" s="5"/>
+      <c r="HN153" s="5"/>
+      <c r="HO153" s="5"/>
+      <c r="HP153" s="5"/>
+    </row>
+    <row r="154" spans="47:224" ht="15" customHeight="1">
+      <c r="GS154" s="5"/>
+      <c r="GT154" s="5"/>
+      <c r="GU154" s="5"/>
+      <c r="GV154" s="5"/>
+      <c r="GW154" s="5"/>
+      <c r="GX154" s="5"/>
+      <c r="GY154" s="5"/>
+      <c r="GZ154" s="5"/>
+      <c r="HA154" s="5"/>
+      <c r="HB154" s="5"/>
+      <c r="HC154" s="5"/>
+      <c r="HD154" s="5"/>
+      <c r="HE154" s="5"/>
+      <c r="HF154" s="5"/>
+      <c r="HG154" s="5"/>
+      <c r="HH154" s="5"/>
+      <c r="HI154" s="5"/>
+      <c r="HJ154" s="5"/>
+      <c r="HK154" s="5"/>
+      <c r="HL154" s="5"/>
+      <c r="HM154" s="5"/>
+      <c r="HN154" s="5"/>
+      <c r="HO154" s="5"/>
+      <c r="HP154" s="5"/>
+    </row>
+    <row r="155" spans="47:224" ht="15" customHeight="1">
+      <c r="GS155" s="5"/>
+      <c r="GT155" s="5"/>
+      <c r="GU155" s="5"/>
+      <c r="GV155" s="5"/>
+      <c r="GW155" s="5"/>
+      <c r="GX155" s="5"/>
+      <c r="GY155" s="5"/>
+      <c r="GZ155" s="5"/>
+      <c r="HA155" s="5"/>
+      <c r="HB155" s="5"/>
+      <c r="HC155" s="5"/>
+      <c r="HD155" s="5"/>
+      <c r="HE155" s="5"/>
+      <c r="HF155" s="5"/>
+      <c r="HG155" s="5"/>
+      <c r="HH155" s="5"/>
+      <c r="HI155" s="5"/>
+      <c r="HJ155" s="5"/>
+      <c r="HK155" s="5"/>
+      <c r="HL155" s="5"/>
+      <c r="HM155" s="5"/>
+      <c r="HN155" s="5"/>
+      <c r="HO155" s="5"/>
+      <c r="HP155" s="5"/>
+    </row>
+    <row r="156" spans="47:224" ht="15" customHeight="1">
+      <c r="GS156" s="5"/>
+      <c r="GT156" s="5"/>
+      <c r="GU156" s="5"/>
+      <c r="GV156" s="5"/>
+      <c r="GW156" s="5"/>
+      <c r="GX156" s="5"/>
+      <c r="GY156" s="5"/>
+      <c r="GZ156" s="5"/>
+      <c r="HA156" s="5"/>
+      <c r="HB156" s="5"/>
+      <c r="HC156" s="5"/>
+      <c r="HD156" s="5"/>
+      <c r="HE156" s="5"/>
+      <c r="HF156" s="5"/>
+      <c r="HG156" s="5"/>
+      <c r="HH156" s="5"/>
+      <c r="HI156" s="5"/>
+      <c r="HJ156" s="5"/>
+      <c r="HK156" s="5"/>
+      <c r="HL156" s="5"/>
+      <c r="HM156" s="5"/>
+      <c r="HN156" s="5"/>
+      <c r="HO156" s="5"/>
+      <c r="HP156" s="5"/>
+    </row>
+    <row r="157" spans="47:224" ht="15" customHeight="1">
+      <c r="GS157" s="5"/>
+      <c r="GT157" s="5"/>
+      <c r="GU157" s="5"/>
+      <c r="GV157" s="5"/>
+      <c r="GW157" s="5"/>
+      <c r="GX157" s="5"/>
+      <c r="GY157" s="5"/>
+      <c r="GZ157" s="5"/>
+      <c r="HA157" s="5"/>
+      <c r="HB157" s="5"/>
+      <c r="HC157" s="5"/>
+      <c r="HD157" s="5"/>
+      <c r="HE157" s="5"/>
+      <c r="HF157" s="5"/>
+      <c r="HG157" s="5"/>
+      <c r="HH157" s="5"/>
+      <c r="HI157" s="5"/>
+      <c r="HJ157" s="5"/>
+      <c r="HK157" s="5"/>
+      <c r="HL157" s="5"/>
+      <c r="HM157" s="5"/>
+      <c r="HN157" s="5"/>
+      <c r="HO157" s="5"/>
+      <c r="HP157" s="5"/>
+    </row>
+    <row r="158" spans="47:224" ht="15" customHeight="1">
+      <c r="GS158" s="5"/>
+      <c r="GT158" s="5"/>
+      <c r="GU158" s="5"/>
+      <c r="GV158" s="5"/>
+      <c r="GW158" s="5"/>
+      <c r="GX158" s="5"/>
+      <c r="GY158" s="5"/>
+      <c r="GZ158" s="5"/>
+      <c r="HA158" s="5"/>
+      <c r="HB158" s="5"/>
+      <c r="HC158" s="5"/>
+      <c r="HD158" s="5"/>
+      <c r="HE158" s="5"/>
+      <c r="HF158" s="5"/>
+      <c r="HG158" s="5"/>
+      <c r="HH158" s="5"/>
+      <c r="HI158" s="5"/>
+      <c r="HJ158" s="5"/>
+      <c r="HK158" s="5"/>
+      <c r="HL158" s="5"/>
+      <c r="HM158" s="5"/>
+      <c r="HN158" s="5"/>
+      <c r="HO158" s="5"/>
+      <c r="HP158" s="5"/>
+    </row>
+    <row r="159" spans="47:224" ht="15" customHeight="1">
+      <c r="GS159" s="5"/>
+      <c r="GT159" s="5"/>
+      <c r="GU159" s="5"/>
+      <c r="GV159" s="5"/>
+      <c r="GW159" s="5"/>
+      <c r="GX159" s="5"/>
+      <c r="GY159" s="5"/>
+      <c r="GZ159" s="5"/>
+      <c r="HA159" s="5"/>
+      <c r="HB159" s="5"/>
+      <c r="HC159" s="5"/>
+      <c r="HD159" s="5"/>
+      <c r="HE159" s="5"/>
+      <c r="HF159" s="5"/>
+      <c r="HG159" s="5"/>
+      <c r="HH159" s="5"/>
+      <c r="HI159" s="5"/>
+      <c r="HJ159" s="5"/>
+      <c r="HK159" s="5"/>
+      <c r="HL159" s="5"/>
+      <c r="HM159" s="5"/>
+      <c r="HN159" s="5"/>
+      <c r="HO159" s="5"/>
+      <c r="HP159" s="5"/>
+    </row>
+    <row r="160" spans="47:224" ht="15" customHeight="1">
+      <c r="GS160" s="5"/>
+      <c r="GT160" s="5"/>
+      <c r="GU160" s="5"/>
+      <c r="GV160" s="5"/>
+      <c r="GW160" s="5"/>
+      <c r="GX160" s="5"/>
+      <c r="GY160" s="5"/>
+      <c r="GZ160" s="5"/>
+      <c r="HA160" s="5"/>
+      <c r="HB160" s="5"/>
+      <c r="HC160" s="5"/>
+      <c r="HD160" s="5"/>
+      <c r="HE160" s="5"/>
+      <c r="HF160" s="5"/>
+      <c r="HG160" s="5"/>
+      <c r="HH160" s="5"/>
+      <c r="HI160" s="5"/>
+      <c r="HJ160" s="5"/>
+      <c r="HK160" s="5"/>
+      <c r="HL160" s="5"/>
+      <c r="HM160" s="5"/>
+      <c r="HN160" s="5"/>
+      <c r="HO160" s="5"/>
+      <c r="HP160" s="5"/>
+    </row>
+    <row r="161" spans="201:224" ht="15" customHeight="1">
+      <c r="GS161" s="5"/>
+      <c r="GT161" s="5"/>
+      <c r="GU161" s="5"/>
+      <c r="GV161" s="5"/>
+      <c r="GW161" s="5"/>
+      <c r="GX161" s="5"/>
+      <c r="GY161" s="5"/>
+      <c r="GZ161" s="5"/>
+      <c r="HA161" s="5"/>
+      <c r="HB161" s="5"/>
+      <c r="HC161" s="5"/>
+      <c r="HD161" s="5"/>
+      <c r="HE161" s="5"/>
+      <c r="HF161" s="5"/>
+      <c r="HG161" s="5"/>
+      <c r="HH161" s="5"/>
+      <c r="HI161" s="5"/>
+      <c r="HJ161" s="5"/>
+      <c r="HK161" s="5"/>
+      <c r="HL161" s="5"/>
+      <c r="HM161" s="5"/>
+      <c r="HN161" s="5"/>
+      <c r="HO161" s="5"/>
+      <c r="HP161" s="5"/>
+    </row>
+    <row r="162" spans="201:224" ht="15" customHeight="1">
+      <c r="GS162" s="5"/>
+      <c r="GT162" s="5"/>
+      <c r="GU162" s="5"/>
+      <c r="GV162" s="5"/>
+      <c r="GW162" s="5"/>
+      <c r="GX162" s="5"/>
+      <c r="GY162" s="5"/>
+      <c r="GZ162" s="5"/>
+      <c r="HA162" s="5"/>
+      <c r="HB162" s="5"/>
+      <c r="HC162" s="5"/>
+      <c r="HD162" s="5"/>
+      <c r="HE162" s="5"/>
+      <c r="HF162" s="5"/>
+      <c r="HG162" s="5"/>
+      <c r="HH162" s="5"/>
+      <c r="HI162" s="5"/>
+      <c r="HJ162" s="5"/>
+      <c r="HK162" s="5"/>
+      <c r="HL162" s="5"/>
+      <c r="HM162" s="5"/>
+      <c r="HN162" s="5"/>
+      <c r="HO162" s="5"/>
+      <c r="HP162" s="5"/>
+    </row>
+    <row r="163" spans="201:224" ht="15" customHeight="1">
+      <c r="GS163" s="5"/>
+      <c r="GT163" s="5"/>
+      <c r="GU163" s="5"/>
+      <c r="GV163" s="5"/>
+      <c r="GW163" s="5"/>
+      <c r="GX163" s="5"/>
+      <c r="GY163" s="5"/>
+      <c r="GZ163" s="5"/>
+      <c r="HA163" s="5"/>
+      <c r="HB163" s="5"/>
+      <c r="HC163" s="5"/>
+      <c r="HD163" s="5"/>
+      <c r="HE163" s="5"/>
+      <c r="HF163" s="5"/>
+      <c r="HG163" s="5"/>
+      <c r="HH163" s="5"/>
+      <c r="HI163" s="5"/>
+      <c r="HJ163" s="5"/>
+      <c r="HK163" s="5"/>
+      <c r="HL163" s="5"/>
+      <c r="HM163" s="5"/>
+      <c r="HN163" s="5"/>
+      <c r="HO163" s="5"/>
+      <c r="HP163" s="5"/>
+    </row>
+    <row r="164" spans="201:224" ht="15" customHeight="1">
+      <c r="GS164" s="5"/>
+      <c r="GT164" s="5"/>
+      <c r="GU164" s="5"/>
+      <c r="GV164" s="5"/>
+      <c r="GW164" s="5"/>
+      <c r="GX164" s="5"/>
+      <c r="GY164" s="5"/>
+      <c r="GZ164" s="5"/>
+      <c r="HA164" s="5"/>
+      <c r="HB164" s="5"/>
+      <c r="HC164" s="5"/>
+      <c r="HD164" s="5"/>
+      <c r="HE164" s="5"/>
+      <c r="HF164" s="5"/>
+      <c r="HG164" s="5"/>
+      <c r="HH164" s="5"/>
+      <c r="HI164" s="5"/>
+      <c r="HJ164" s="5"/>
+      <c r="HK164" s="5"/>
+      <c r="HL164" s="5"/>
+      <c r="HM164" s="5"/>
+      <c r="HN164" s="5"/>
+      <c r="HO164" s="5"/>
+      <c r="HP164" s="5"/>
+    </row>
+    <row r="165" spans="201:224" ht="15" customHeight="1">
+      <c r="GS165" s="5"/>
+      <c r="GT165" s="5"/>
+      <c r="GU165" s="5"/>
+      <c r="GV165" s="5"/>
+      <c r="GW165" s="5"/>
+      <c r="GX165" s="5"/>
+      <c r="GY165" s="5"/>
+      <c r="GZ165" s="5"/>
+      <c r="HA165" s="5"/>
+      <c r="HB165" s="5"/>
+      <c r="HC165" s="5"/>
+      <c r="HD165" s="5"/>
+      <c r="HE165" s="5"/>
+      <c r="HF165" s="5"/>
+      <c r="HG165" s="5"/>
+      <c r="HH165" s="5"/>
+      <c r="HI165" s="5"/>
+      <c r="HJ165" s="5"/>
+      <c r="HK165" s="5"/>
+      <c r="HL165" s="5"/>
+      <c r="HM165" s="5"/>
+      <c r="HN165" s="5"/>
+      <c r="HO165" s="5"/>
+      <c r="HP165" s="5"/>
+    </row>
+    <row r="166" spans="201:224" ht="15" customHeight="1">
+      <c r="GS166" s="5"/>
+      <c r="GT166" s="5"/>
+      <c r="GU166" s="5"/>
+      <c r="GV166" s="5"/>
+      <c r="GW166" s="5"/>
+      <c r="GX166" s="5"/>
+      <c r="GY166" s="5"/>
+      <c r="GZ166" s="5"/>
+      <c r="HA166" s="5"/>
+      <c r="HB166" s="5"/>
+      <c r="HC166" s="5"/>
+      <c r="HD166" s="5"/>
+      <c r="HE166" s="5"/>
+      <c r="HF166" s="5"/>
+      <c r="HG166" s="5"/>
+      <c r="HH166" s="5"/>
+      <c r="HI166" s="5"/>
+      <c r="HJ166" s="5"/>
+      <c r="HK166" s="5"/>
+      <c r="HL166" s="5"/>
+      <c r="HM166" s="5"/>
+      <c r="HN166" s="5"/>
+      <c r="HO166" s="5"/>
+      <c r="HP166" s="5"/>
+    </row>
+    <row r="167" spans="201:224" ht="15" customHeight="1">
+      <c r="GS167" s="5"/>
+      <c r="GT167" s="5"/>
+      <c r="GU167" s="5"/>
+      <c r="GV167" s="5"/>
+      <c r="GW167" s="5"/>
+      <c r="GX167" s="5"/>
+      <c r="GY167" s="5"/>
+      <c r="GZ167" s="5"/>
+      <c r="HA167" s="5"/>
+      <c r="HB167" s="5"/>
+      <c r="HC167" s="5"/>
+      <c r="HD167" s="5"/>
+      <c r="HE167" s="5"/>
+      <c r="HF167" s="5"/>
+      <c r="HG167" s="5"/>
+      <c r="HH167" s="5"/>
+      <c r="HI167" s="5"/>
+      <c r="HJ167" s="5"/>
+      <c r="HK167" s="5"/>
+      <c r="HL167" s="5"/>
+      <c r="HM167" s="5"/>
+      <c r="HN167" s="5"/>
+      <c r="HO167" s="5"/>
+      <c r="HP167" s="5"/>
+    </row>
+    <row r="168" spans="201:224" ht="15" customHeight="1">
+      <c r="GS168" s="5"/>
+      <c r="GT168" s="5"/>
+      <c r="GU168" s="5"/>
+      <c r="GV168" s="5"/>
+      <c r="GW168" s="5"/>
+      <c r="GX168" s="5"/>
+      <c r="GY168" s="5"/>
+      <c r="GZ168" s="5"/>
+      <c r="HA168" s="5"/>
+      <c r="HB168" s="5"/>
+      <c r="HC168" s="5"/>
+      <c r="HD168" s="5"/>
+      <c r="HE168" s="5"/>
+      <c r="HF168" s="5"/>
+      <c r="HG168" s="5"/>
+      <c r="HH168" s="5"/>
+      <c r="HI168" s="5"/>
+      <c r="HJ168" s="5"/>
+      <c r="HK168" s="5"/>
+      <c r="HL168" s="5"/>
+      <c r="HM168" s="5"/>
+      <c r="HN168" s="5"/>
+      <c r="HO168" s="5"/>
+      <c r="HP168" s="5"/>
+    </row>
+    <row r="169" spans="201:224" ht="15" customHeight="1">
+      <c r="GS169" s="5"/>
+      <c r="GT169" s="5"/>
+      <c r="GU169" s="5"/>
+      <c r="GV169" s="5"/>
+      <c r="GW169" s="5"/>
+      <c r="GX169" s="5"/>
+      <c r="GY169" s="5"/>
+      <c r="GZ169" s="5"/>
+      <c r="HA169" s="5"/>
+      <c r="HB169" s="5"/>
+      <c r="HC169" s="5"/>
+      <c r="HD169" s="5"/>
+      <c r="HE169" s="5"/>
+      <c r="HF169" s="5"/>
+      <c r="HG169" s="5"/>
+      <c r="HH169" s="5"/>
+      <c r="HI169" s="5"/>
+      <c r="HJ169" s="5"/>
+      <c r="HK169" s="5"/>
+      <c r="HL169" s="5"/>
+      <c r="HM169" s="5"/>
+      <c r="HN169" s="5"/>
+      <c r="HO169" s="5"/>
+      <c r="HP169" s="5"/>
+    </row>
+    <row r="170" spans="201:224" ht="15" customHeight="1">
+      <c r="GS170" s="5"/>
+      <c r="GT170" s="5"/>
+      <c r="GU170" s="5"/>
+      <c r="GV170" s="5"/>
+      <c r="GW170" s="5"/>
+      <c r="GX170" s="5"/>
+      <c r="GY170" s="5"/>
+      <c r="GZ170" s="5"/>
+      <c r="HA170" s="5"/>
+      <c r="HB170" s="5"/>
+      <c r="HC170" s="5"/>
+      <c r="HD170" s="5"/>
+      <c r="HE170" s="5"/>
+      <c r="HF170" s="5"/>
+      <c r="HG170" s="5"/>
+      <c r="HH170" s="5"/>
+      <c r="HI170" s="5"/>
+      <c r="HJ170" s="5"/>
+      <c r="HK170" s="5"/>
+      <c r="HL170" s="5"/>
+      <c r="HM170" s="5"/>
+      <c r="HN170" s="5"/>
+      <c r="HO170" s="5"/>
+      <c r="HP170" s="5"/>
+    </row>
+    <row r="171" spans="201:224" ht="15" customHeight="1">
+      <c r="GS171" s="5"/>
+      <c r="GT171" s="5"/>
+      <c r="GU171" s="5"/>
+      <c r="GV171" s="5"/>
+      <c r="GW171" s="5"/>
+      <c r="GX171" s="5"/>
+      <c r="GY171" s="5"/>
+      <c r="GZ171" s="5"/>
+      <c r="HA171" s="5"/>
+      <c r="HB171" s="5"/>
+      <c r="HC171" s="5"/>
+      <c r="HD171" s="5"/>
+      <c r="HE171" s="5"/>
+      <c r="HF171" s="5"/>
+      <c r="HG171" s="5"/>
+      <c r="HH171" s="5"/>
+      <c r="HI171" s="5"/>
+      <c r="HJ171" s="5"/>
+      <c r="HK171" s="5"/>
+      <c r="HL171" s="5"/>
+      <c r="HM171" s="5"/>
+      <c r="HN171" s="5"/>
+      <c r="HO171" s="5"/>
+      <c r="HP171" s="5"/>
+    </row>
+    <row r="172" spans="201:224" ht="15" customHeight="1">
+      <c r="GS172" s="5"/>
+      <c r="GT172" s="5"/>
+      <c r="GU172" s="5"/>
+      <c r="GV172" s="5"/>
+      <c r="GW172" s="5"/>
+      <c r="GX172" s="5"/>
+      <c r="GY172" s="5"/>
+      <c r="GZ172" s="5"/>
+      <c r="HA172" s="5"/>
+      <c r="HB172" s="5"/>
+      <c r="HC172" s="5"/>
+      <c r="HD172" s="5"/>
+      <c r="HE172" s="5"/>
+      <c r="HF172" s="5"/>
+      <c r="HG172" s="5"/>
+      <c r="HH172" s="5"/>
+      <c r="HI172" s="5"/>
+      <c r="HJ172" s="5"/>
+      <c r="HK172" s="5"/>
+      <c r="HL172" s="5"/>
+      <c r="HM172" s="5"/>
+      <c r="HN172" s="5"/>
+      <c r="HO172" s="5"/>
+      <c r="HP172" s="5"/>
+    </row>
+    <row r="173" spans="201:224" ht="15" customHeight="1">
+      <c r="GS173" s="5"/>
+      <c r="GT173" s="5"/>
+      <c r="GU173" s="5"/>
+      <c r="GV173" s="5"/>
+      <c r="GW173" s="5"/>
+      <c r="GX173" s="5"/>
+      <c r="GY173" s="5"/>
+      <c r="GZ173" s="5"/>
+      <c r="HA173" s="5"/>
+      <c r="HB173" s="5"/>
+      <c r="HC173" s="5"/>
+      <c r="HD173" s="5"/>
+      <c r="HE173" s="5"/>
+      <c r="HF173" s="5"/>
+      <c r="HG173" s="5"/>
+      <c r="HH173" s="5"/>
+      <c r="HI173" s="5"/>
+      <c r="HJ173" s="5"/>
+      <c r="HK173" s="5"/>
+      <c r="HL173" s="5"/>
+      <c r="HM173" s="5"/>
+      <c r="HN173" s="5"/>
+      <c r="HO173" s="5"/>
+      <c r="HP173" s="5"/>
+    </row>
+    <row r="174" spans="201:224" ht="15" customHeight="1">
+      <c r="GS174" s="5"/>
+      <c r="GT174" s="5"/>
+      <c r="GU174" s="5"/>
+      <c r="GV174" s="5"/>
+      <c r="GW174" s="5"/>
+      <c r="GX174" s="5"/>
+      <c r="GY174" s="5"/>
+      <c r="GZ174" s="5"/>
+      <c r="HA174" s="5"/>
+      <c r="HB174" s="5"/>
+      <c r="HC174" s="5"/>
+      <c r="HD174" s="5"/>
+      <c r="HE174" s="5"/>
+      <c r="HF174" s="5"/>
+      <c r="HG174" s="5"/>
+      <c r="HH174" s="5"/>
+      <c r="HI174" s="5"/>
+      <c r="HJ174" s="5"/>
+      <c r="HK174" s="5"/>
+      <c r="HL174" s="5"/>
+      <c r="HM174" s="5"/>
+      <c r="HN174" s="5"/>
+      <c r="HO174" s="5"/>
+      <c r="HP174" s="5"/>
+    </row>
+    <row r="175" spans="201:224" ht="15" customHeight="1">
+      <c r="GS175" s="5"/>
+      <c r="GT175" s="5"/>
+      <c r="GU175" s="5"/>
+      <c r="GV175" s="5"/>
+      <c r="GW175" s="5"/>
+      <c r="GX175" s="5"/>
+      <c r="GY175" s="5"/>
+      <c r="GZ175" s="5"/>
+      <c r="HA175" s="5"/>
+      <c r="HB175" s="5"/>
+      <c r="HC175" s="5"/>
+      <c r="HD175" s="5"/>
+      <c r="HE175" s="5"/>
+      <c r="HF175" s="5"/>
+      <c r="HG175" s="5"/>
+      <c r="HH175" s="5"/>
+      <c r="HI175" s="5"/>
+      <c r="HJ175" s="5"/>
+      <c r="HK175" s="5"/>
+      <c r="HL175" s="5"/>
+      <c r="HM175" s="5"/>
+      <c r="HN175" s="5"/>
+      <c r="HO175" s="5"/>
+      <c r="HP175" s="5"/>
+    </row>
+    <row r="176" spans="201:224" ht="15" customHeight="1">
+      <c r="GS176" s="5"/>
+      <c r="GT176" s="5"/>
+      <c r="GU176" s="5"/>
+      <c r="GV176" s="5"/>
+      <c r="GW176" s="5"/>
+      <c r="GX176" s="5"/>
+      <c r="GY176" s="5"/>
+      <c r="GZ176" s="5"/>
+      <c r="HA176" s="5"/>
+      <c r="HB176" s="5"/>
+      <c r="HC176" s="5"/>
+      <c r="HD176" s="5"/>
+      <c r="HE176" s="5"/>
+      <c r="HF176" s="5"/>
+      <c r="HG176" s="5"/>
+      <c r="HH176" s="5"/>
+      <c r="HI176" s="5"/>
+      <c r="HJ176" s="5"/>
+      <c r="HK176" s="5"/>
+      <c r="HL176" s="5"/>
+      <c r="HM176" s="5"/>
+      <c r="HN176" s="5"/>
+      <c r="HO176" s="5"/>
+      <c r="HP176" s="5"/>
+    </row>
+    <row r="177" spans="201:224" ht="15" customHeight="1">
+      <c r="GS177" s="5"/>
+      <c r="GT177" s="5"/>
+      <c r="GU177" s="5"/>
+      <c r="GV177" s="5"/>
+      <c r="GW177" s="5"/>
+      <c r="GX177" s="5"/>
+      <c r="GY177" s="5"/>
+      <c r="GZ177" s="5"/>
+      <c r="HA177" s="5"/>
+      <c r="HB177" s="5"/>
+      <c r="HC177" s="5"/>
+      <c r="HD177" s="5"/>
+      <c r="HE177" s="5"/>
+      <c r="HF177" s="5"/>
+      <c r="HG177" s="5"/>
+      <c r="HH177" s="5"/>
+      <c r="HI177" s="5"/>
+      <c r="HJ177" s="5"/>
+      <c r="HK177" s="5"/>
+      <c r="HL177" s="5"/>
+      <c r="HM177" s="5"/>
+      <c r="HN177" s="5"/>
+      <c r="HO177" s="5"/>
+      <c r="HP177" s="5"/>
+    </row>
+    <row r="178" spans="201:224" ht="15" customHeight="1">
+      <c r="GS178" s="5"/>
+      <c r="GT178" s="5"/>
+      <c r="GU178" s="5"/>
+      <c r="GV178" s="5"/>
+      <c r="GW178" s="5"/>
+      <c r="GX178" s="5"/>
+      <c r="GY178" s="5"/>
+      <c r="GZ178" s="5"/>
+      <c r="HA178" s="5"/>
+      <c r="HB178" s="5"/>
+      <c r="HC178" s="5"/>
+      <c r="HD178" s="5"/>
+      <c r="HE178" s="5"/>
+      <c r="HF178" s="5"/>
+      <c r="HG178" s="5"/>
+      <c r="HH178" s="5"/>
+      <c r="HI178" s="5"/>
+      <c r="HJ178" s="5"/>
+      <c r="HK178" s="5"/>
+      <c r="HL178" s="5"/>
+      <c r="HM178" s="5"/>
+      <c r="HN178" s="5"/>
+      <c r="HO178" s="5"/>
+      <c r="HP178" s="5"/>
+    </row>
+    <row r="179" spans="201:224" ht="15" customHeight="1">
+      <c r="GS179" s="5"/>
+      <c r="GT179" s="5"/>
+      <c r="GU179" s="5"/>
+      <c r="GV179" s="5"/>
+      <c r="GW179" s="5"/>
+      <c r="GX179" s="5"/>
+      <c r="GY179" s="5"/>
+      <c r="GZ179" s="5"/>
+      <c r="HA179" s="5"/>
+      <c r="HB179" s="5"/>
+      <c r="HC179" s="5"/>
+      <c r="HD179" s="5"/>
+      <c r="HE179" s="5"/>
+      <c r="HF179" s="5"/>
+      <c r="HG179" s="5"/>
+      <c r="HH179" s="5"/>
+      <c r="HI179" s="5"/>
+      <c r="HJ179" s="5"/>
+      <c r="HK179" s="5"/>
+      <c r="HL179" s="5"/>
+      <c r="HM179" s="5"/>
+      <c r="HN179" s="5"/>
+      <c r="HO179" s="5"/>
+      <c r="HP179" s="5"/>
+    </row>
+    <row r="180" spans="201:224" ht="15" customHeight="1">
+      <c r="GS180" s="5"/>
+      <c r="GT180" s="5"/>
+      <c r="GU180" s="5"/>
+      <c r="GV180" s="5"/>
+      <c r="GW180" s="5"/>
+      <c r="GX180" s="5"/>
+      <c r="GY180" s="5"/>
+      <c r="GZ180" s="5"/>
+      <c r="HA180" s="5"/>
+      <c r="HB180" s="5"/>
+      <c r="HC180" s="5"/>
+      <c r="HD180" s="5"/>
+      <c r="HE180" s="5"/>
+      <c r="HF180" s="5"/>
+      <c r="HG180" s="5"/>
+      <c r="HH180" s="5"/>
+      <c r="HI180" s="5"/>
+      <c r="HJ180" s="5"/>
+      <c r="HK180" s="5"/>
+      <c r="HL180" s="5"/>
+      <c r="HM180" s="5"/>
+      <c r="HN180" s="5"/>
+      <c r="HO180" s="5"/>
+      <c r="HP180" s="5"/>
+    </row>
+    <row r="181" spans="201:224" ht="15" customHeight="1">
+      <c r="GS181" s="5"/>
+      <c r="GT181" s="5"/>
+      <c r="GU181" s="5"/>
+      <c r="GV181" s="5"/>
+      <c r="GW181" s="5"/>
+      <c r="GX181" s="5"/>
+      <c r="GY181" s="5"/>
+      <c r="GZ181" s="5"/>
+      <c r="HA181" s="5"/>
+      <c r="HB181" s="5"/>
+      <c r="HC181" s="5"/>
+      <c r="HD181" s="5"/>
+      <c r="HE181" s="5"/>
+      <c r="HF181" s="5"/>
+      <c r="HG181" s="5"/>
+      <c r="HH181" s="5"/>
+      <c r="HI181" s="5"/>
+      <c r="HJ181" s="5"/>
+      <c r="HK181" s="5"/>
+      <c r="HL181" s="5"/>
+      <c r="HM181" s="5"/>
+      <c r="HN181" s="5"/>
+      <c r="HO181" s="5"/>
+      <c r="HP181" s="5"/>
+    </row>
+    <row r="182" spans="201:224" ht="15" customHeight="1">
+      <c r="GS182" s="5"/>
+      <c r="GT182" s="5"/>
+      <c r="GU182" s="5"/>
+      <c r="GV182" s="5"/>
+      <c r="GW182" s="5"/>
+      <c r="GX182" s="5"/>
+      <c r="GY182" s="5"/>
+      <c r="GZ182" s="5"/>
+      <c r="HA182" s="5"/>
+      <c r="HB182" s="5"/>
+      <c r="HC182" s="5"/>
+      <c r="HD182" s="5"/>
+      <c r="HE182" s="5"/>
+      <c r="HF182" s="5"/>
+      <c r="HG182" s="5"/>
+      <c r="HH182" s="5"/>
+      <c r="HI182" s="5"/>
+      <c r="HJ182" s="5"/>
+      <c r="HK182" s="5"/>
+      <c r="HL182" s="5"/>
+      <c r="HM182" s="5"/>
+      <c r="HN182" s="5"/>
+      <c r="HO182" s="5"/>
+      <c r="HP182" s="5"/>
+    </row>
+    <row r="183" spans="201:224" ht="15" customHeight="1">
+      <c r="GS183" s="5"/>
+      <c r="GT183" s="5"/>
+      <c r="GU183" s="5"/>
+      <c r="GV183" s="5"/>
+      <c r="GW183" s="5"/>
+      <c r="GX183" s="5"/>
+      <c r="GY183" s="5"/>
+      <c r="GZ183" s="5"/>
+      <c r="HA183" s="5"/>
+      <c r="HB183" s="5"/>
+      <c r="HC183" s="5"/>
+      <c r="HD183" s="5"/>
+      <c r="HE183" s="5"/>
+      <c r="HF183" s="5"/>
+      <c r="HG183" s="5"/>
+      <c r="HH183" s="5"/>
+      <c r="HI183" s="5"/>
+      <c r="HJ183" s="5"/>
+      <c r="HK183" s="5"/>
+      <c r="HL183" s="5"/>
+      <c r="HM183" s="5"/>
+      <c r="HN183" s="5"/>
+      <c r="HO183" s="5"/>
+      <c r="HP183" s="5"/>
+    </row>
+    <row r="184" spans="201:224" ht="15" customHeight="1">
+      <c r="GS184" s="5"/>
+      <c r="GT184" s="5"/>
+      <c r="GU184" s="5"/>
+      <c r="GV184" s="5"/>
+      <c r="GW184" s="5"/>
+      <c r="GX184" s="5"/>
+      <c r="GY184" s="5"/>
+      <c r="GZ184" s="5"/>
+      <c r="HA184" s="5"/>
+      <c r="HB184" s="5"/>
+      <c r="HC184" s="5"/>
+      <c r="HD184" s="5"/>
+      <c r="HE184" s="5"/>
+      <c r="HF184" s="5"/>
+      <c r="HG184" s="5"/>
+      <c r="HH184" s="5"/>
+      <c r="HI184" s="5"/>
+      <c r="HJ184" s="5"/>
+      <c r="HK184" s="5"/>
+      <c r="HL184" s="5"/>
+      <c r="HM184" s="5"/>
+      <c r="HN184" s="5"/>
+      <c r="HO184" s="5"/>
+      <c r="HP184" s="5"/>
+    </row>
+    <row r="185" spans="201:224" ht="15" customHeight="1">
+      <c r="GS185" s="5"/>
+      <c r="GT185" s="5"/>
+      <c r="GU185" s="5"/>
+      <c r="GV185" s="5"/>
+      <c r="GW185" s="5"/>
+      <c r="GX185" s="5"/>
+      <c r="GY185" s="5"/>
+      <c r="GZ185" s="5"/>
+      <c r="HA185" s="5"/>
+      <c r="HB185" s="5"/>
+      <c r="HC185" s="5"/>
+      <c r="HD185" s="5"/>
+      <c r="HE185" s="5"/>
+      <c r="HF185" s="5"/>
+      <c r="HG185" s="5"/>
+      <c r="HH185" s="5"/>
+      <c r="HI185" s="5"/>
+      <c r="HJ185" s="5"/>
+      <c r="HK185" s="5"/>
+      <c r="HL185" s="5"/>
+      <c r="HM185" s="5"/>
+      <c r="HN185" s="5"/>
+      <c r="HO185" s="5"/>
+      <c r="HP185" s="5"/>
+    </row>
+    <row r="186" spans="201:224" ht="15" customHeight="1">
+      <c r="GS186" s="5"/>
+      <c r="GT186" s="5"/>
+      <c r="GU186" s="5"/>
+      <c r="GV186" s="5"/>
+      <c r="GW186" s="5"/>
+      <c r="GX186" s="5"/>
+      <c r="GY186" s="5"/>
+      <c r="GZ186" s="5"/>
+      <c r="HA186" s="5"/>
+      <c r="HB186" s="5"/>
+      <c r="HC186" s="5"/>
+      <c r="HD186" s="5"/>
+      <c r="HE186" s="5"/>
+      <c r="HF186" s="5"/>
+      <c r="HG186" s="5"/>
+      <c r="HH186" s="5"/>
+      <c r="HI186" s="5"/>
+      <c r="HJ186" s="5"/>
+      <c r="HK186" s="5"/>
+      <c r="HL186" s="5"/>
+      <c r="HM186" s="5"/>
+      <c r="HN186" s="5"/>
+      <c r="HO186" s="5"/>
+      <c r="HP186" s="5"/>
+    </row>
+    <row r="187" spans="201:224" ht="15" customHeight="1">
+      <c r="GS187" s="5"/>
+      <c r="GT187" s="5"/>
+      <c r="GU187" s="5"/>
+      <c r="GV187" s="5"/>
+      <c r="GW187" s="5"/>
+      <c r="GX187" s="5"/>
+      <c r="GY187" s="5"/>
+      <c r="GZ187" s="5"/>
+      <c r="HA187" s="5"/>
+      <c r="HB187" s="5"/>
+      <c r="HC187" s="5"/>
+      <c r="HD187" s="5"/>
+      <c r="HE187" s="5"/>
+      <c r="HF187" s="5"/>
+      <c r="HG187" s="5"/>
+      <c r="HH187" s="5"/>
+      <c r="HI187" s="5"/>
+      <c r="HJ187" s="5"/>
+      <c r="HK187" s="5"/>
+      <c r="HL187" s="5"/>
+      <c r="HM187" s="5"/>
+      <c r="HN187" s="5"/>
+      <c r="HO187" s="5"/>
+      <c r="HP187" s="5"/>
+    </row>
+    <row r="188" spans="201:224" ht="15" customHeight="1">
+      <c r="GS188" s="5"/>
+      <c r="GT188" s="5"/>
+      <c r="GU188" s="5"/>
+      <c r="GV188" s="5"/>
+      <c r="GW188" s="5"/>
+      <c r="GX188" s="5"/>
+      <c r="GY188" s="5"/>
+      <c r="GZ188" s="5"/>
+      <c r="HA188" s="5"/>
+      <c r="HB188" s="5"/>
+      <c r="HC188" s="5"/>
+      <c r="HD188" s="5"/>
+      <c r="HE188" s="5"/>
+      <c r="HF188" s="5"/>
+      <c r="HG188" s="5"/>
+      <c r="HH188" s="5"/>
+      <c r="HI188" s="5"/>
+      <c r="HJ188" s="5"/>
+      <c r="HK188" s="5"/>
+      <c r="HL188" s="5"/>
+      <c r="HM188" s="5"/>
+      <c r="HN188" s="5"/>
+      <c r="HO188" s="5"/>
+      <c r="HP188" s="5"/>
+    </row>
+    <row r="189" spans="201:224" ht="15" customHeight="1">
+      <c r="GS189" s="5"/>
+      <c r="GT189" s="5"/>
+      <c r="GU189" s="5"/>
+      <c r="GV189" s="5"/>
+      <c r="GW189" s="5"/>
+      <c r="GX189" s="5"/>
+      <c r="GY189" s="5"/>
+      <c r="GZ189" s="5"/>
+      <c r="HA189" s="5"/>
+      <c r="HB189" s="5"/>
+      <c r="HC189" s="5"/>
+      <c r="HD189" s="5"/>
+      <c r="HE189" s="5"/>
+      <c r="HF189" s="5"/>
+      <c r="HG189" s="5"/>
+      <c r="HH189" s="5"/>
+      <c r="HI189" s="5"/>
+      <c r="HJ189" s="5"/>
+      <c r="HK189" s="5"/>
+      <c r="HL189" s="5"/>
+      <c r="HM189" s="5"/>
+      <c r="HN189" s="5"/>
+      <c r="HO189" s="5"/>
+      <c r="HP189" s="5"/>
+    </row>
+    <row r="190" spans="201:224" ht="15" customHeight="1">
+      <c r="GS190" s="5"/>
+      <c r="GT190" s="5"/>
+      <c r="GU190" s="5"/>
+      <c r="GV190" s="5"/>
+      <c r="GW190" s="5"/>
+      <c r="GX190" s="5"/>
+      <c r="GY190" s="5"/>
+      <c r="GZ190" s="5"/>
+      <c r="HA190" s="5"/>
+      <c r="HB190" s="5"/>
+      <c r="HC190" s="5"/>
+      <c r="HD190" s="5"/>
+      <c r="HE190" s="5"/>
+      <c r="HF190" s="5"/>
+      <c r="HG190" s="5"/>
+      <c r="HH190" s="5"/>
+      <c r="HI190" s="5"/>
+      <c r="HJ190" s="5"/>
+      <c r="HK190" s="5"/>
+      <c r="HL190" s="5"/>
+      <c r="HM190" s="5"/>
+      <c r="HN190" s="5"/>
+      <c r="HO190" s="5"/>
+      <c r="HP190" s="5"/>
+    </row>
+    <row r="191" spans="201:224" ht="15" customHeight="1">
+      <c r="GS191" s="5"/>
+      <c r="GT191" s="5"/>
+      <c r="GU191" s="5"/>
+      <c r="GV191" s="5"/>
+      <c r="GW191" s="5"/>
+      <c r="GX191" s="5"/>
+      <c r="GY191" s="5"/>
+      <c r="GZ191" s="5"/>
+      <c r="HA191" s="5"/>
+      <c r="HB191" s="5"/>
+    </row>
+    <row r="192" spans="201:224" ht="15" customHeight="1">
+      <c r="GS192" s="5"/>
+      <c r="GT192" s="5"/>
+      <c r="GU192" s="5"/>
+      <c r="GV192" s="5"/>
+      <c r="GW192" s="5"/>
+      <c r="GX192" s="5"/>
+      <c r="GY192" s="5"/>
+      <c r="GZ192" s="5"/>
+      <c r="HA192" s="5"/>
+      <c r="HB192" s="5"/>
+    </row>
+    <row r="193" spans="201:210" ht="15" customHeight="1">
+      <c r="GS193" s="5"/>
+      <c r="GT193" s="5"/>
+      <c r="GU193" s="5"/>
+      <c r="GV193" s="5"/>
+      <c r="GW193" s="5"/>
+      <c r="GX193" s="5"/>
+      <c r="GY193" s="5"/>
+      <c r="GZ193" s="5"/>
+      <c r="HA193" s="5"/>
+      <c r="HB193" s="5"/>
+    </row>
+    <row r="194" spans="201:210" ht="15" customHeight="1">
+      <c r="GS194" s="5"/>
+      <c r="GT194" s="5"/>
+      <c r="GU194" s="5"/>
+      <c r="GV194" s="5"/>
+      <c r="GW194" s="5"/>
+      <c r="GX194" s="5"/>
+      <c r="GY194" s="5"/>
+      <c r="GZ194" s="5"/>
+      <c r="HA194" s="5"/>
+      <c r="HB194" s="5"/>
+    </row>
+    <row r="195" spans="201:210" ht="15" customHeight="1">
+      <c r="GS195" s="5"/>
+      <c r="GT195" s="5"/>
+      <c r="GU195" s="5"/>
+      <c r="GV195" s="5"/>
+      <c r="GW195" s="5"/>
+      <c r="GX195" s="5"/>
+      <c r="GY195" s="5"/>
+      <c r="GZ195" s="5"/>
+      <c r="HA195" s="5"/>
+      <c r="HB195" s="5"/>
+    </row>
+    <row r="196" spans="201:210" ht="15" customHeight="1">
+      <c r="GS196" s="5"/>
+      <c r="GT196" s="5"/>
+      <c r="GU196" s="5"/>
+      <c r="GV196" s="5"/>
+      <c r="GW196" s="5"/>
+      <c r="GX196" s="5"/>
+      <c r="GY196" s="5"/>
+      <c r="GZ196" s="5"/>
+      <c r="HA196" s="5"/>
+      <c r="HB196" s="5"/>
+    </row>
+    <row r="197" spans="201:210" ht="15" customHeight="1">
+      <c r="GS197" s="5"/>
+      <c r="GT197" s="5"/>
+      <c r="GU197" s="5"/>
+      <c r="GV197" s="5"/>
+      <c r="GW197" s="5"/>
+      <c r="GX197" s="5"/>
+      <c r="GY197" s="5"/>
+      <c r="GZ197" s="5"/>
+      <c r="HA197" s="5"/>
+      <c r="HB197" s="5"/>
+    </row>
+    <row r="198" spans="201:210" ht="15" customHeight="1">
+      <c r="GS198" s="5"/>
+      <c r="GT198" s="5"/>
+      <c r="GU198" s="5"/>
+      <c r="GV198" s="5"/>
+      <c r="GW198" s="5"/>
+      <c r="GX198" s="5"/>
+      <c r="GY198" s="5"/>
+      <c r="GZ198" s="5"/>
+      <c r="HA198" s="5"/>
+      <c r="HB198" s="5"/>
+    </row>
+    <row r="199" spans="201:210" ht="15" customHeight="1">
+      <c r="GS199" s="5"/>
+      <c r="GT199" s="5"/>
+      <c r="GU199" s="5"/>
+      <c r="GV199" s="5"/>
+      <c r="GW199" s="5"/>
+      <c r="GX199" s="5"/>
+      <c r="GY199" s="5"/>
+      <c r="GZ199" s="5"/>
+      <c r="HA199" s="5"/>
+      <c r="HB199" s="5"/>
+    </row>
+    <row r="200" spans="201:210" ht="15" customHeight="1">
+      <c r="GS200" s="5"/>
+      <c r="GT200" s="5"/>
+      <c r="GU200" s="5"/>
+      <c r="GV200" s="5"/>
+      <c r="GW200" s="5"/>
+      <c r="GX200" s="5"/>
+      <c r="GY200" s="5"/>
+      <c r="GZ200" s="5"/>
+      <c r="HA200" s="5"/>
+      <c r="HB200" s="5"/>
+    </row>
+    <row r="201" spans="201:210" ht="15" customHeight="1">
+      <c r="GS201" s="5"/>
+      <c r="GT201" s="5"/>
+      <c r="GU201" s="5"/>
+      <c r="GV201" s="5"/>
+      <c r="GW201" s="5"/>
+      <c r="GX201" s="5"/>
+      <c r="GY201" s="5"/>
+      <c r="GZ201" s="5"/>
+      <c r="HA201" s="5"/>
+      <c r="HB201" s="5"/>
+    </row>
+    <row r="202" spans="201:210" ht="15" customHeight="1">
+      <c r="GS202" s="5"/>
+      <c r="GT202" s="5"/>
+      <c r="GU202" s="5"/>
+      <c r="GV202" s="5"/>
+      <c r="GW202" s="5"/>
+      <c r="GX202" s="5"/>
+      <c r="GY202" s="5"/>
+      <c r="GZ202" s="5"/>
+      <c r="HA202" s="5"/>
+      <c r="HB202" s="5"/>
+    </row>
+    <row r="203" spans="201:210" ht="15" customHeight="1">
+      <c r="GS203" s="5"/>
+      <c r="GT203" s="5"/>
+      <c r="GU203" s="5"/>
+      <c r="GV203" s="5"/>
+      <c r="GW203" s="5"/>
+      <c r="GX203" s="5"/>
+      <c r="GY203" s="5"/>
+      <c r="GZ203" s="5"/>
+      <c r="HA203" s="5"/>
+      <c r="HB203" s="5"/>
+    </row>
+    <row r="204" spans="201:210" ht="15" customHeight="1">
+      <c r="GS204" s="5"/>
+      <c r="GT204" s="5"/>
+      <c r="GU204" s="5"/>
+      <c r="GV204" s="5"/>
+      <c r="GW204" s="5"/>
+      <c r="GX204" s="5"/>
+      <c r="GY204" s="5"/>
+      <c r="GZ204" s="5"/>
+      <c r="HA204" s="5"/>
+      <c r="HB204" s="5"/>
+    </row>
+    <row r="205" spans="201:210" ht="15" customHeight="1">
+      <c r="GS205" s="5"/>
+      <c r="GT205" s="5"/>
+      <c r="GU205" s="5"/>
+      <c r="GV205" s="5"/>
+      <c r="GW205" s="5"/>
+      <c r="GX205" s="5"/>
+      <c r="GY205" s="5"/>
+      <c r="GZ205" s="5"/>
+      <c r="HA205" s="5"/>
+      <c r="HB205" s="5"/>
+    </row>
+    <row r="206" spans="201:210" ht="15" customHeight="1">
+      <c r="GS206" s="5"/>
+      <c r="GT206" s="5"/>
+      <c r="GU206" s="5"/>
+      <c r="GV206" s="5"/>
+      <c r="GW206" s="5"/>
+      <c r="GX206" s="5"/>
+      <c r="GY206" s="5"/>
+      <c r="GZ206" s="5"/>
+      <c r="HA206" s="5"/>
+      <c r="HB206" s="5"/>
+    </row>
+    <row r="207" spans="201:210" ht="15" customHeight="1">
+      <c r="GS207" s="5"/>
+      <c r="GT207" s="5"/>
+      <c r="GU207" s="5"/>
+      <c r="GV207" s="5"/>
+      <c r="GW207" s="5"/>
+      <c r="GX207" s="5"/>
+      <c r="GY207" s="5"/>
+      <c r="GZ207" s="5"/>
+      <c r="HA207" s="5"/>
+      <c r="HB207" s="5"/>
+    </row>
+    <row r="208" spans="201:210" ht="15" customHeight="1">
+      <c r="GS208" s="5"/>
+      <c r="GT208" s="5"/>
+      <c r="GU208" s="5"/>
+      <c r="GV208" s="5"/>
+      <c r="GW208" s="5"/>
+      <c r="GX208" s="5"/>
+      <c r="GY208" s="5"/>
+      <c r="GZ208" s="5"/>
+      <c r="HA208" s="5"/>
+      <c r="HB208" s="5"/>
+    </row>
+    <row r="209" spans="201:210" ht="15" customHeight="1">
+      <c r="GS209" s="5"/>
+      <c r="GT209" s="5"/>
+      <c r="GU209" s="5"/>
+      <c r="GV209" s="5"/>
+      <c r="GW209" s="5"/>
+      <c r="GX209" s="5"/>
+      <c r="GY209" s="5"/>
+      <c r="GZ209" s="5"/>
+      <c r="HA209" s="5"/>
+      <c r="HB209" s="5"/>
+    </row>
+    <row r="210" spans="201:210" ht="15" customHeight="1">
+      <c r="GS210" s="5"/>
+      <c r="GT210" s="5"/>
+      <c r="GU210" s="5"/>
+      <c r="GV210" s="5"/>
+      <c r="GW210" s="5"/>
+      <c r="GX210" s="5"/>
+      <c r="GY210" s="5"/>
+      <c r="GZ210" s="5"/>
+      <c r="HA210" s="5"/>
+      <c r="HB210" s="5"/>
+    </row>
+    <row r="211" spans="201:210" ht="15" customHeight="1">
+      <c r="GS211" s="5"/>
+      <c r="GT211" s="5"/>
+      <c r="GU211" s="5"/>
+      <c r="GV211" s="5"/>
+      <c r="GW211" s="5"/>
+      <c r="GX211" s="5"/>
+      <c r="GY211" s="5"/>
+      <c r="GZ211" s="5"/>
+      <c r="HA211" s="5"/>
+      <c r="HB211" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9BA861F-1543-4E3F-944C-B4904EFE1B49}">
+  <dimension ref="B5:O11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <cols>
+    <col min="2" max="2" width="21.0625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="6"/>
+    <col min="5" max="5" width="21.0625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="6"/>
+    <col min="8" max="8" width="9.875" customWidth="1"/>
+    <col min="9" max="9" width="9" style="6"/>
+    <col min="10" max="10" width="28.5" customWidth="1"/>
+    <col min="11" max="11" width="9" style="6"/>
+    <col min="12" max="12" width="16.3125" customWidth="1"/>
+    <col min="13" max="13" width="9" style="6"/>
+    <col min="14" max="14" width="21.0625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:13">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="D7" s="8">
+        <f>SUM(C5:C7)</f>
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="11">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="6">
+        <v>3.26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="11">
+        <v>3</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="11">
+        <v>2</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="9">
+        <f>SUM(D7,I8)</f>
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="I11"/>
+      <c r="J11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="L11" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11" s="6">
+        <f>SUM(K9:K11)</f>
+        <v>17.799999999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>